--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>41300</v>
+        <v>43300</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>41300</v>
+        <v>43300</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>164000</v>
+        <v>171800</v>
       </c>
       <c r="E12" s="3">
-        <v>112400</v>
+        <v>117800</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14100</v>
+        <v>14800</v>
       </c>
       <c r="E15" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>311200</v>
+        <v>326000</v>
       </c>
       <c r="E17" s="3">
-        <v>164200</v>
+        <v>172000</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-269900</v>
+        <v>-282700</v>
       </c>
       <c r="E18" s="3">
-        <v>-164200</v>
+        <v>-172000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-69100</v>
+        <v>-72300</v>
       </c>
       <c r="E20" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-322200</v>
+        <v>-337400</v>
       </c>
       <c r="E21" s="3">
-        <v>-151300</v>
+        <v>-158400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="E22" s="3">
-        <v>9200</v>
+        <v>9700</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-351100</v>
+        <v>-367800</v>
       </c>
       <c r="E23" s="3">
-        <v>-169200</v>
+        <v>-177300</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-351100</v>
+        <v>-367800</v>
       </c>
       <c r="E26" s="3">
-        <v>-169200</v>
+        <v>-177300</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-473600</v>
+        <v>-496100</v>
       </c>
       <c r="E27" s="3">
-        <v>-215300</v>
+        <v>-225500</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1234,10 +1234,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E29" s="3">
-        <v>-53300</v>
+        <v>-55800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>69100</v>
+        <v>72300</v>
       </c>
       <c r="E32" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-476600</v>
+        <v>-499200</v>
       </c>
       <c r="E33" s="3">
-        <v>-268600</v>
+        <v>-281400</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-476600</v>
+        <v>-499200</v>
       </c>
       <c r="E35" s="3">
-        <v>-268600</v>
+        <v>-281400</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>188200</v>
+        <v>197200</v>
       </c>
       <c r="E41" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>330100</v>
+        <v>345700</v>
       </c>
       <c r="E42" s="3">
-        <v>124900</v>
+        <v>130800</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>74300</v>
+        <v>77800</v>
       </c>
       <c r="E43" s="3">
-        <v>184900</v>
+        <v>193700</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>75200</v>
+        <v>78800</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67900</v>
+        <v>71100</v>
       </c>
       <c r="E45" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>735700</v>
+        <v>770600</v>
       </c>
       <c r="E46" s="3">
-        <v>333200</v>
+        <v>349000</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18300</v>
+        <v>19200</v>
       </c>
       <c r="E47" s="3">
-        <v>25700</v>
+        <v>26900</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>480000</v>
+        <v>502800</v>
       </c>
       <c r="E48" s="3">
-        <v>292400</v>
+        <v>306200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>97900</v>
+        <v>102500</v>
       </c>
       <c r="E49" s="3">
-        <v>97500</v>
+        <v>102100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>49700</v>
+        <v>52100</v>
       </c>
       <c r="E52" s="3">
-        <v>90800</v>
+        <v>95100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1381600</v>
+        <v>1447200</v>
       </c>
       <c r="E54" s="3">
-        <v>839600</v>
+        <v>879400</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>90700</v>
+        <v>95000</v>
       </c>
       <c r="E57" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>187700</v>
+        <v>196600</v>
       </c>
       <c r="E58" s="3">
-        <v>58200</v>
+        <v>61000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>401200</v>
+        <v>420300</v>
       </c>
       <c r="E59" s="3">
-        <v>192600</v>
+        <v>201700</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>679600</v>
+        <v>711900</v>
       </c>
       <c r="E60" s="3">
-        <v>254100</v>
+        <v>266100</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>146000</v>
+        <v>152900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36700</v>
+        <v>38400</v>
       </c>
       <c r="E62" s="3">
-        <v>32400</v>
+        <v>34000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>716300</v>
+        <v>750300</v>
       </c>
       <c r="E66" s="3">
-        <v>432400</v>
+        <v>453000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1489400</v>
+        <v>1560100</v>
       </c>
       <c r="E70" s="3">
-        <v>769800</v>
+        <v>806300</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-826400</v>
+        <v>-865600</v>
       </c>
       <c r="E72" s="3">
-        <v>-349800</v>
+        <v>-366400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-824100</v>
+        <v>-863200</v>
       </c>
       <c r="E76" s="3">
-        <v>-362700</v>
+        <v>-379900</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-476600</v>
+        <v>-499200</v>
       </c>
       <c r="E81" s="3">
-        <v>-268600</v>
+        <v>-281400</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16900</v>
+        <v>17700</v>
       </c>
       <c r="E83" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-260500</v>
+        <v>-272900</v>
       </c>
       <c r="E89" s="3">
-        <v>-195600</v>
+        <v>-204900</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-138400</v>
+        <v>-145000</v>
       </c>
       <c r="E91" s="3">
-        <v>-141000</v>
+        <v>-147700</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-373900</v>
+        <v>-391700</v>
       </c>
       <c r="E94" s="3">
-        <v>-27800</v>
+        <v>-29100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>821400</v>
+        <v>860300</v>
       </c>
       <c r="E100" s="3">
-        <v>161000</v>
+        <v>168600</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="E101" s="3">
         <v>500</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>194700</v>
+        <v>204000</v>
       </c>
       <c r="E102" s="3">
-        <v>-61900</v>
+        <v>-64900</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>LI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +705,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>43300</v>
+        <v>1444800</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>43400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,17 +735,20 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>43300</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>1208100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -759,17 +765,20 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>236700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,19 +812,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>171800</v>
+        <v>161200</v>
       </c>
       <c r="E12" s="3">
-        <v>117800</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>172600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>118300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,20 +869,23 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2700</v>
+        <v>4600</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>2800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -880,21 +899,24 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14800</v>
+        <v>12700</v>
       </c>
       <c r="E15" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F15" s="3">
         <v>9200</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>326000</v>
+        <v>1547000</v>
       </c>
       <c r="E17" s="3">
-        <v>172000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>327400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>172800</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-282700</v>
+        <v>-102300</v>
       </c>
       <c r="E18" s="3">
-        <v>-172000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-284000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-172800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,20 +1017,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-72300</v>
+        <v>83600</v>
       </c>
       <c r="E20" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="F20" s="3">
         <v>4400</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-337400</v>
+        <v>30600</v>
       </c>
       <c r="E21" s="3">
-        <v>-158400</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-338800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-159100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,21 +1074,24 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12700</v>
+        <v>10200</v>
       </c>
       <c r="E22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F22" s="3">
         <v>9700</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-367800</v>
+        <v>-28900</v>
       </c>
       <c r="E23" s="3">
-        <v>-177300</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-369400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-178000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,14 +1134,17 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1107,21 +1152,24 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-367800</v>
+        <v>-25400</v>
       </c>
       <c r="E26" s="3">
-        <v>-177300</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-369400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-178000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-496100</v>
+        <v>-123200</v>
       </c>
       <c r="E27" s="3">
-        <v>-225500</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-498200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-226500</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,20 +1284,23 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3100</v>
+        <v>2200</v>
       </c>
       <c r="E29" s="3">
-        <v>-55800</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+        <v>-3200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-56100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,21 +1374,24 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>72300</v>
+        <v>-83600</v>
       </c>
       <c r="E32" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4400</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-499200</v>
+        <v>-121000</v>
       </c>
       <c r="E33" s="3">
-        <v>-281400</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-501400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-282600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-499200</v>
+        <v>-121000</v>
       </c>
       <c r="E35" s="3">
-        <v>-281400</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-501400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-282600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,20 +1560,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>197200</v>
+        <v>1365600</v>
       </c>
       <c r="E41" s="3">
+        <v>198000</v>
+      </c>
+      <c r="F41" s="3">
         <v>10700</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>345700</v>
+        <v>3010000</v>
       </c>
       <c r="E42" s="3">
-        <v>130800</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>347200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>131400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>77800</v>
+        <v>48800</v>
       </c>
       <c r="E43" s="3">
-        <v>193700</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>78100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>194500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,20 +1647,23 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>78800</v>
+        <v>160100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>79200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>71100</v>
+        <v>211400</v>
       </c>
       <c r="E45" s="3">
-        <v>13800</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>71400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>13900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>770600</v>
+        <v>4795900</v>
       </c>
       <c r="E46" s="3">
-        <v>349000</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>774000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>350500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,20 +1737,23 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19200</v>
+        <v>24900</v>
       </c>
       <c r="E47" s="3">
-        <v>26900</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>19300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>27100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>502800</v>
+        <v>573800</v>
       </c>
       <c r="E48" s="3">
-        <v>306200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>505000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>307600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,20 +1797,23 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>102500</v>
+        <v>104400</v>
       </c>
       <c r="E49" s="3">
-        <v>102100</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>103000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>102600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>52100</v>
+        <v>58100</v>
       </c>
       <c r="E52" s="3">
-        <v>95100</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>52300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>95500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1447200</v>
+        <v>5557100</v>
       </c>
       <c r="E54" s="3">
-        <v>879400</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>1453500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>883200</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,20 +2008,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>95000</v>
+        <v>457000</v>
       </c>
       <c r="E57" s="3">
+        <v>95400</v>
+      </c>
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>196600</v>
+        <v>25800</v>
       </c>
       <c r="E58" s="3">
-        <v>61000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>197400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>61200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>420300</v>
+        <v>175500</v>
       </c>
       <c r="E59" s="3">
-        <v>201700</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>422100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>202600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>711900</v>
+        <v>658400</v>
       </c>
       <c r="E60" s="3">
-        <v>266100</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>715000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>267300</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,20 +2125,23 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>134200</v>
       </c>
       <c r="E61" s="3">
-        <v>152900</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>153500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,20 +2155,23 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38400</v>
+        <v>211100</v>
       </c>
       <c r="E62" s="3">
-        <v>34000</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>38600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>34100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>750300</v>
+        <v>1003700</v>
       </c>
       <c r="E66" s="3">
-        <v>453000</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>753600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>454900</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,20 +2379,23 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1560100</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>806300</v>
+        <v>1566900</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>809800</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-865600</v>
+        <v>-990400</v>
       </c>
       <c r="E72" s="3">
-        <v>-366400</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-869400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-368000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-863200</v>
+        <v>4553400</v>
       </c>
       <c r="E76" s="3">
-        <v>-379900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-867000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-381500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-499200</v>
+        <v>-121000</v>
       </c>
       <c r="E81" s="3">
-        <v>-281400</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-501400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-282600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,20 +2701,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17700</v>
+        <v>49000</v>
       </c>
       <c r="E83" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F83" s="3">
         <v>9200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-272900</v>
+        <v>479700</v>
       </c>
       <c r="E89" s="3">
-        <v>-204900</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-274000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-205800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2925,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-145000</v>
+        <v>-103200</v>
       </c>
       <c r="E91" s="3">
-        <v>-147700</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-145600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-148300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-391700</v>
+        <v>-2862700</v>
       </c>
       <c r="E94" s="3">
-        <v>-29100</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-393400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-29300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,20 +3176,23 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>860300</v>
+        <v>3775300</v>
       </c>
       <c r="E100" s="3">
-        <v>168600</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>864100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>169400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2961,21 +3206,24 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E101" s="3">
         <v>8200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,20 +3236,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>204000</v>
+        <v>1334700</v>
       </c>
       <c r="E102" s="3">
-        <v>-64900</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>204900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-65100</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1444800</v>
+        <v>1475300</v>
       </c>
       <c r="E8" s="3">
-        <v>43400</v>
+        <v>44400</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1208100</v>
+        <v>1233600</v>
       </c>
       <c r="E9" s="3">
-        <v>43500</v>
+        <v>44400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>236700</v>
+        <v>241700</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>161200</v>
+        <v>164600</v>
       </c>
       <c r="E12" s="3">
-        <v>172600</v>
+        <v>176200</v>
       </c>
       <c r="F12" s="3">
-        <v>118300</v>
+        <v>120800</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E14" s="3">
         <v>2800</v>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="E15" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="F15" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1547000</v>
+        <v>1579700</v>
       </c>
       <c r="E17" s="3">
-        <v>327400</v>
+        <v>334300</v>
       </c>
       <c r="F17" s="3">
-        <v>172800</v>
+        <v>176400</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-102300</v>
+        <v>-104400</v>
       </c>
       <c r="E18" s="3">
-        <v>-284000</v>
+        <v>-290000</v>
       </c>
       <c r="F18" s="3">
-        <v>-172800</v>
+        <v>-176400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>83600</v>
+        <v>85400</v>
       </c>
       <c r="E20" s="3">
-        <v>-72700</v>
+        <v>-74200</v>
       </c>
       <c r="F20" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>30600</v>
+        <v>31000</v>
       </c>
       <c r="E21" s="3">
-        <v>-338800</v>
+        <v>-346000</v>
       </c>
       <c r="F21" s="3">
-        <v>-159100</v>
+        <v>-162500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="E22" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="F22" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-28900</v>
+        <v>-29500</v>
       </c>
       <c r="E23" s="3">
-        <v>-369400</v>
+        <v>-377200</v>
       </c>
       <c r="F23" s="3">
-        <v>-178000</v>
+        <v>-181800</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25400</v>
+        <v>-25900</v>
       </c>
       <c r="E26" s="3">
-        <v>-369400</v>
+        <v>-377200</v>
       </c>
       <c r="F26" s="3">
-        <v>-178000</v>
+        <v>-181800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-123200</v>
+        <v>-125800</v>
       </c>
       <c r="E27" s="3">
-        <v>-498200</v>
+        <v>-508700</v>
       </c>
       <c r="F27" s="3">
-        <v>-226500</v>
+        <v>-231300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1300,7 +1300,7 @@
         <v>-3200</v>
       </c>
       <c r="F29" s="3">
-        <v>-56100</v>
+        <v>-57300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-83600</v>
+        <v>-85400</v>
       </c>
       <c r="E32" s="3">
-        <v>72700</v>
+        <v>74200</v>
       </c>
       <c r="F32" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-121000</v>
+        <v>-123600</v>
       </c>
       <c r="E33" s="3">
-        <v>-501400</v>
+        <v>-512000</v>
       </c>
       <c r="F33" s="3">
-        <v>-282600</v>
+        <v>-288600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-121000</v>
+        <v>-123600</v>
       </c>
       <c r="E35" s="3">
-        <v>-501400</v>
+        <v>-512000</v>
       </c>
       <c r="F35" s="3">
-        <v>-282600</v>
+        <v>-288600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1365600</v>
+        <v>1394500</v>
       </c>
       <c r="E41" s="3">
-        <v>198000</v>
+        <v>202200</v>
       </c>
       <c r="F41" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3010000</v>
+        <v>3073600</v>
       </c>
       <c r="E42" s="3">
-        <v>347200</v>
+        <v>354600</v>
       </c>
       <c r="F42" s="3">
-        <v>131400</v>
+        <v>134200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>48800</v>
+        <v>49900</v>
       </c>
       <c r="E43" s="3">
-        <v>78100</v>
+        <v>79800</v>
       </c>
       <c r="F43" s="3">
-        <v>194500</v>
+        <v>198600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,10 +1657,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>160100</v>
+        <v>163500</v>
       </c>
       <c r="E44" s="3">
-        <v>79200</v>
+        <v>80800</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>211400</v>
+        <v>215900</v>
       </c>
       <c r="E45" s="3">
-        <v>71400</v>
+        <v>72900</v>
       </c>
       <c r="F45" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4795900</v>
+        <v>4897300</v>
       </c>
       <c r="E46" s="3">
-        <v>774000</v>
+        <v>790300</v>
       </c>
       <c r="F46" s="3">
-        <v>350500</v>
+        <v>357900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="E47" s="3">
-        <v>19300</v>
+        <v>19700</v>
       </c>
       <c r="F47" s="3">
-        <v>27100</v>
+        <v>27600</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>573800</v>
+        <v>585900</v>
       </c>
       <c r="E48" s="3">
-        <v>505000</v>
+        <v>515700</v>
       </c>
       <c r="F48" s="3">
-        <v>307600</v>
+        <v>314100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>104400</v>
+        <v>106600</v>
       </c>
       <c r="E49" s="3">
-        <v>103000</v>
+        <v>105100</v>
       </c>
       <c r="F49" s="3">
-        <v>102600</v>
+        <v>104700</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>58100</v>
+        <v>59300</v>
       </c>
       <c r="E52" s="3">
-        <v>52300</v>
+        <v>53400</v>
       </c>
       <c r="F52" s="3">
-        <v>95500</v>
+        <v>97500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5557100</v>
+        <v>5674600</v>
       </c>
       <c r="E54" s="3">
-        <v>1453500</v>
+        <v>1484200</v>
       </c>
       <c r="F54" s="3">
-        <v>883200</v>
+        <v>901900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>457000</v>
+        <v>466700</v>
       </c>
       <c r="E57" s="3">
-        <v>95400</v>
+        <v>97500</v>
       </c>
       <c r="F57" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25800</v>
+        <v>26400</v>
       </c>
       <c r="E58" s="3">
-        <v>197400</v>
+        <v>201600</v>
       </c>
       <c r="F58" s="3">
-        <v>61200</v>
+        <v>62500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>175500</v>
+        <v>179200</v>
       </c>
       <c r="E59" s="3">
-        <v>422100</v>
+        <v>431000</v>
       </c>
       <c r="F59" s="3">
-        <v>202600</v>
+        <v>206900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>658400</v>
+        <v>672300</v>
       </c>
       <c r="E60" s="3">
-        <v>715000</v>
+        <v>730100</v>
       </c>
       <c r="F60" s="3">
-        <v>267300</v>
+        <v>272900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>134200</v>
+        <v>137100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>153500</v>
+        <v>156800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>211100</v>
+        <v>215600</v>
       </c>
       <c r="E62" s="3">
-        <v>38600</v>
+        <v>39400</v>
       </c>
       <c r="F62" s="3">
-        <v>34100</v>
+        <v>34800</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1003700</v>
+        <v>1024900</v>
       </c>
       <c r="E66" s="3">
-        <v>753600</v>
+        <v>769500</v>
       </c>
       <c r="F66" s="3">
-        <v>454900</v>
+        <v>464500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1566900</v>
+        <v>1600000</v>
       </c>
       <c r="F70" s="3">
-        <v>809800</v>
+        <v>826900</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-990400</v>
+        <v>-1011300</v>
       </c>
       <c r="E72" s="3">
-        <v>-869400</v>
+        <v>-887700</v>
       </c>
       <c r="F72" s="3">
-        <v>-368000</v>
+        <v>-375800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4553400</v>
+        <v>4649700</v>
       </c>
       <c r="E76" s="3">
-        <v>-867000</v>
+        <v>-885300</v>
       </c>
       <c r="F76" s="3">
-        <v>-381500</v>
+        <v>-389600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-121000</v>
+        <v>-123600</v>
       </c>
       <c r="E81" s="3">
-        <v>-501400</v>
+        <v>-512000</v>
       </c>
       <c r="F81" s="3">
-        <v>-282600</v>
+        <v>-288600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>49000</v>
+        <v>50100</v>
       </c>
       <c r="E83" s="3">
-        <v>17800</v>
+        <v>18200</v>
       </c>
       <c r="F83" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>479700</v>
+        <v>489800</v>
       </c>
       <c r="E89" s="3">
-        <v>-274000</v>
+        <v>-279800</v>
       </c>
       <c r="F89" s="3">
-        <v>-205800</v>
+        <v>-210100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-103200</v>
+        <v>-105300</v>
       </c>
       <c r="E91" s="3">
-        <v>-145600</v>
+        <v>-148700</v>
       </c>
       <c r="F91" s="3">
-        <v>-148300</v>
+        <v>-151400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2862700</v>
+        <v>-2923300</v>
       </c>
       <c r="E94" s="3">
-        <v>-393400</v>
+        <v>-401700</v>
       </c>
       <c r="F94" s="3">
-        <v>-29300</v>
+        <v>-29900</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3775300</v>
+        <v>3855100</v>
       </c>
       <c r="E100" s="3">
-        <v>864100</v>
+        <v>882300</v>
       </c>
       <c r="F100" s="3">
-        <v>169400</v>
+        <v>173000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-57500</v>
+        <v>-58800</v>
       </c>
       <c r="E101" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1334700</v>
+        <v>1362900</v>
       </c>
       <c r="E102" s="3">
-        <v>204900</v>
+        <v>209200</v>
       </c>
       <c r="F102" s="3">
-        <v>-65100</v>
+        <v>-66500</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1475300</v>
+        <v>1456100</v>
       </c>
       <c r="E8" s="3">
-        <v>44400</v>
+        <v>43800</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1233600</v>
+        <v>1217600</v>
       </c>
       <c r="E9" s="3">
-        <v>44400</v>
+        <v>43800</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>241700</v>
+        <v>238600</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>164600</v>
+        <v>162400</v>
       </c>
       <c r="E12" s="3">
-        <v>176200</v>
+        <v>173900</v>
       </c>
       <c r="F12" s="3">
-        <v>120800</v>
+        <v>119200</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="E15" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="F15" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1579700</v>
+        <v>1559200</v>
       </c>
       <c r="E17" s="3">
-        <v>334300</v>
+        <v>330000</v>
       </c>
       <c r="F17" s="3">
-        <v>176400</v>
+        <v>174100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-104400</v>
+        <v>-103100</v>
       </c>
       <c r="E18" s="3">
-        <v>-290000</v>
+        <v>-286200</v>
       </c>
       <c r="F18" s="3">
-        <v>-176400</v>
+        <v>-174100</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>85400</v>
+        <v>84300</v>
       </c>
       <c r="E20" s="3">
-        <v>-74200</v>
+        <v>-73200</v>
       </c>
       <c r="F20" s="3">
         <v>4500</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="E21" s="3">
-        <v>-346000</v>
+        <v>-341500</v>
       </c>
       <c r="F21" s="3">
-        <v>-162500</v>
+        <v>-160300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="E22" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="F22" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29500</v>
+        <v>-29100</v>
       </c>
       <c r="E23" s="3">
-        <v>-377200</v>
+        <v>-372300</v>
       </c>
       <c r="F23" s="3">
-        <v>-181800</v>
+        <v>-179400</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25900</v>
+        <v>-25600</v>
       </c>
       <c r="E26" s="3">
-        <v>-377200</v>
+        <v>-372300</v>
       </c>
       <c r="F26" s="3">
-        <v>-181800</v>
+        <v>-179400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-125800</v>
+        <v>-124200</v>
       </c>
       <c r="E27" s="3">
-        <v>-508700</v>
+        <v>-502100</v>
       </c>
       <c r="F27" s="3">
-        <v>-231300</v>
+        <v>-228300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1300,7 +1300,7 @@
         <v>-3200</v>
       </c>
       <c r="F29" s="3">
-        <v>-57300</v>
+        <v>-56500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1384,10 +1384,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-85400</v>
+        <v>-84300</v>
       </c>
       <c r="E32" s="3">
-        <v>74200</v>
+        <v>73200</v>
       </c>
       <c r="F32" s="3">
         <v>-4500</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-123600</v>
+        <v>-121900</v>
       </c>
       <c r="E33" s="3">
-        <v>-512000</v>
+        <v>-505300</v>
       </c>
       <c r="F33" s="3">
-        <v>-288600</v>
+        <v>-284800</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-123600</v>
+        <v>-121900</v>
       </c>
       <c r="E35" s="3">
-        <v>-512000</v>
+        <v>-505300</v>
       </c>
       <c r="F35" s="3">
-        <v>-288600</v>
+        <v>-284800</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1394500</v>
+        <v>1376300</v>
       </c>
       <c r="E41" s="3">
-        <v>202200</v>
+        <v>199600</v>
       </c>
       <c r="F41" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3073600</v>
+        <v>3033600</v>
       </c>
       <c r="E42" s="3">
-        <v>354600</v>
+        <v>349900</v>
       </c>
       <c r="F42" s="3">
-        <v>134200</v>
+        <v>132400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>49900</v>
+        <v>49200</v>
       </c>
       <c r="E43" s="3">
-        <v>79800</v>
+        <v>78800</v>
       </c>
       <c r="F43" s="3">
-        <v>198600</v>
+        <v>196000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,10 +1657,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>163500</v>
+        <v>161400</v>
       </c>
       <c r="E44" s="3">
-        <v>80800</v>
+        <v>79800</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>215900</v>
+        <v>213100</v>
       </c>
       <c r="E45" s="3">
-        <v>72900</v>
+        <v>72000</v>
       </c>
       <c r="F45" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4897300</v>
+        <v>4833600</v>
       </c>
       <c r="E46" s="3">
-        <v>790300</v>
+        <v>780000</v>
       </c>
       <c r="F46" s="3">
-        <v>357900</v>
+        <v>353300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="E47" s="3">
-        <v>19700</v>
+        <v>19400</v>
       </c>
       <c r="F47" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>585900</v>
+        <v>578300</v>
       </c>
       <c r="E48" s="3">
-        <v>515700</v>
+        <v>509000</v>
       </c>
       <c r="F48" s="3">
-        <v>314100</v>
+        <v>310000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>106600</v>
+        <v>105200</v>
       </c>
       <c r="E49" s="3">
-        <v>105100</v>
+        <v>103800</v>
       </c>
       <c r="F49" s="3">
-        <v>104700</v>
+        <v>103400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>59300</v>
+        <v>58600</v>
       </c>
       <c r="E52" s="3">
-        <v>53400</v>
+        <v>52700</v>
       </c>
       <c r="F52" s="3">
-        <v>97500</v>
+        <v>96200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5674600</v>
+        <v>5600800</v>
       </c>
       <c r="E54" s="3">
-        <v>1484200</v>
+        <v>1464900</v>
       </c>
       <c r="F54" s="3">
-        <v>901900</v>
+        <v>890100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>466700</v>
+        <v>460600</v>
       </c>
       <c r="E57" s="3">
-        <v>97500</v>
+        <v>96200</v>
       </c>
       <c r="F57" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26400</v>
+        <v>26000</v>
       </c>
       <c r="E58" s="3">
-        <v>201600</v>
+        <v>199000</v>
       </c>
       <c r="F58" s="3">
-        <v>62500</v>
+        <v>61700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>179200</v>
+        <v>176900</v>
       </c>
       <c r="E59" s="3">
-        <v>431000</v>
+        <v>425400</v>
       </c>
       <c r="F59" s="3">
-        <v>206900</v>
+        <v>204200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>672300</v>
+        <v>663500</v>
       </c>
       <c r="E60" s="3">
-        <v>730100</v>
+        <v>720600</v>
       </c>
       <c r="F60" s="3">
-        <v>272900</v>
+        <v>269400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>137100</v>
+        <v>135300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>156800</v>
+        <v>154700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>215600</v>
+        <v>212800</v>
       </c>
       <c r="E62" s="3">
-        <v>39400</v>
+        <v>38900</v>
       </c>
       <c r="F62" s="3">
-        <v>34800</v>
+        <v>34400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1024900</v>
+        <v>1011600</v>
       </c>
       <c r="E66" s="3">
-        <v>769500</v>
+        <v>759500</v>
       </c>
       <c r="F66" s="3">
-        <v>464500</v>
+        <v>458500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1600000</v>
+        <v>1579200</v>
       </c>
       <c r="F70" s="3">
-        <v>826900</v>
+        <v>816100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1011300</v>
+        <v>-998100</v>
       </c>
       <c r="E72" s="3">
-        <v>-887700</v>
+        <v>-876200</v>
       </c>
       <c r="F72" s="3">
-        <v>-375800</v>
+        <v>-370900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4649700</v>
+        <v>4589200</v>
       </c>
       <c r="E76" s="3">
-        <v>-885300</v>
+        <v>-873800</v>
       </c>
       <c r="F76" s="3">
-        <v>-389600</v>
+        <v>-384500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-123600</v>
+        <v>-121900</v>
       </c>
       <c r="E81" s="3">
-        <v>-512000</v>
+        <v>-505300</v>
       </c>
       <c r="F81" s="3">
-        <v>-288600</v>
+        <v>-284800</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50100</v>
+        <v>49400</v>
       </c>
       <c r="E83" s="3">
-        <v>18200</v>
+        <v>17900</v>
       </c>
       <c r="F83" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>489800</v>
+        <v>483500</v>
       </c>
       <c r="E89" s="3">
-        <v>-279800</v>
+        <v>-276200</v>
       </c>
       <c r="F89" s="3">
-        <v>-210100</v>
+        <v>-207400</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-105300</v>
+        <v>-104000</v>
       </c>
       <c r="E91" s="3">
-        <v>-148700</v>
+        <v>-146700</v>
       </c>
       <c r="F91" s="3">
-        <v>-151400</v>
+        <v>-149500</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2923300</v>
+        <v>-2885200</v>
       </c>
       <c r="E94" s="3">
-        <v>-401700</v>
+        <v>-396500</v>
       </c>
       <c r="F94" s="3">
-        <v>-29900</v>
+        <v>-29500</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3855100</v>
+        <v>3805000</v>
       </c>
       <c r="E100" s="3">
-        <v>882300</v>
+        <v>870900</v>
       </c>
       <c r="F100" s="3">
-        <v>173000</v>
+        <v>170700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-58800</v>
+        <v>-58000</v>
       </c>
       <c r="E101" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1362900</v>
+        <v>1345200</v>
       </c>
       <c r="E102" s="3">
-        <v>209200</v>
+        <v>206500</v>
       </c>
       <c r="F102" s="3">
-        <v>-66500</v>
+        <v>-65700</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1456100</v>
+        <v>1480500</v>
       </c>
       <c r="E8" s="3">
-        <v>43800</v>
+        <v>44500</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1217600</v>
+        <v>1238000</v>
       </c>
       <c r="E9" s="3">
-        <v>43800</v>
+        <v>44500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>238600</v>
+        <v>242600</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>162400</v>
+        <v>165200</v>
       </c>
       <c r="E12" s="3">
-        <v>173900</v>
+        <v>176800</v>
       </c>
       <c r="F12" s="3">
-        <v>119200</v>
+        <v>121200</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E14" s="3">
         <v>2800</v>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="E15" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="F15" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1559200</v>
+        <v>1585300</v>
       </c>
       <c r="E17" s="3">
-        <v>330000</v>
+        <v>335500</v>
       </c>
       <c r="F17" s="3">
-        <v>174100</v>
+        <v>177100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-103100</v>
+        <v>-104800</v>
       </c>
       <c r="E18" s="3">
-        <v>-286200</v>
+        <v>-291000</v>
       </c>
       <c r="F18" s="3">
-        <v>-174100</v>
+        <v>-177100</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>84300</v>
+        <v>85700</v>
       </c>
       <c r="E20" s="3">
-        <v>-73200</v>
+        <v>-74500</v>
       </c>
       <c r="F20" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>30700</v>
+        <v>31100</v>
       </c>
       <c r="E21" s="3">
-        <v>-341500</v>
+        <v>-347200</v>
       </c>
       <c r="F21" s="3">
-        <v>-160300</v>
+        <v>-163000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="E22" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="F22" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29100</v>
+        <v>-29600</v>
       </c>
       <c r="E23" s="3">
-        <v>-372300</v>
+        <v>-378500</v>
       </c>
       <c r="F23" s="3">
-        <v>-179400</v>
+        <v>-182400</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25600</v>
+        <v>-26000</v>
       </c>
       <c r="E26" s="3">
-        <v>-372300</v>
+        <v>-378500</v>
       </c>
       <c r="F26" s="3">
-        <v>-179400</v>
+        <v>-182400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-124200</v>
+        <v>-126200</v>
       </c>
       <c r="E27" s="3">
-        <v>-502100</v>
+        <v>-510500</v>
       </c>
       <c r="F27" s="3">
-        <v>-228300</v>
+        <v>-232100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1294,13 +1294,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E29" s="3">
         <v>-3200</v>
       </c>
       <c r="F29" s="3">
-        <v>-56500</v>
+        <v>-57500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-84300</v>
+        <v>-85700</v>
       </c>
       <c r="E32" s="3">
-        <v>73200</v>
+        <v>74500</v>
       </c>
       <c r="F32" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-121900</v>
+        <v>-124000</v>
       </c>
       <c r="E33" s="3">
-        <v>-505300</v>
+        <v>-513800</v>
       </c>
       <c r="F33" s="3">
-        <v>-284800</v>
+        <v>-289600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-121900</v>
+        <v>-124000</v>
       </c>
       <c r="E35" s="3">
-        <v>-505300</v>
+        <v>-513800</v>
       </c>
       <c r="F35" s="3">
-        <v>-284800</v>
+        <v>-289600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1376300</v>
+        <v>1399400</v>
       </c>
       <c r="E41" s="3">
-        <v>199600</v>
+        <v>202900</v>
       </c>
       <c r="F41" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3033600</v>
+        <v>3084400</v>
       </c>
       <c r="E42" s="3">
-        <v>349900</v>
+        <v>355800</v>
       </c>
       <c r="F42" s="3">
-        <v>132400</v>
+        <v>134600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>49200</v>
+        <v>50000</v>
       </c>
       <c r="E43" s="3">
-        <v>78800</v>
+        <v>80100</v>
       </c>
       <c r="F43" s="3">
-        <v>196000</v>
+        <v>199300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,10 +1657,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>161400</v>
+        <v>164100</v>
       </c>
       <c r="E44" s="3">
-        <v>79800</v>
+        <v>81100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>213100</v>
+        <v>216600</v>
       </c>
       <c r="E45" s="3">
-        <v>72000</v>
+        <v>73200</v>
       </c>
       <c r="F45" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4833600</v>
+        <v>4914600</v>
       </c>
       <c r="E46" s="3">
-        <v>780000</v>
+        <v>793100</v>
       </c>
       <c r="F46" s="3">
-        <v>353300</v>
+        <v>359200</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25100</v>
+        <v>25500</v>
       </c>
       <c r="E47" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="F47" s="3">
-        <v>27300</v>
+        <v>27700</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>578300</v>
+        <v>588000</v>
       </c>
       <c r="E48" s="3">
-        <v>509000</v>
+        <v>517500</v>
       </c>
       <c r="F48" s="3">
-        <v>310000</v>
+        <v>315200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>105200</v>
+        <v>107000</v>
       </c>
       <c r="E49" s="3">
-        <v>103800</v>
+        <v>105500</v>
       </c>
       <c r="F49" s="3">
-        <v>103400</v>
+        <v>105100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>58600</v>
+        <v>59500</v>
       </c>
       <c r="E52" s="3">
-        <v>52700</v>
+        <v>53600</v>
       </c>
       <c r="F52" s="3">
-        <v>96200</v>
+        <v>97800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5600800</v>
+        <v>5694600</v>
       </c>
       <c r="E54" s="3">
-        <v>1464900</v>
+        <v>1489400</v>
       </c>
       <c r="F54" s="3">
-        <v>890100</v>
+        <v>905100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>460600</v>
+        <v>468400</v>
       </c>
       <c r="E57" s="3">
-        <v>96200</v>
+        <v>97800</v>
       </c>
       <c r="F57" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26000</v>
+        <v>26500</v>
       </c>
       <c r="E58" s="3">
-        <v>199000</v>
+        <v>202300</v>
       </c>
       <c r="F58" s="3">
-        <v>61700</v>
+        <v>62800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>176900</v>
+        <v>179800</v>
       </c>
       <c r="E59" s="3">
-        <v>425400</v>
+        <v>432500</v>
       </c>
       <c r="F59" s="3">
-        <v>204200</v>
+        <v>207600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>663500</v>
+        <v>674700</v>
       </c>
       <c r="E60" s="3">
-        <v>720600</v>
+        <v>732700</v>
       </c>
       <c r="F60" s="3">
-        <v>269400</v>
+        <v>273900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>135300</v>
+        <v>137500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>154700</v>
+        <v>157300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>212800</v>
+        <v>216400</v>
       </c>
       <c r="E62" s="3">
-        <v>38900</v>
+        <v>39500</v>
       </c>
       <c r="F62" s="3">
-        <v>34400</v>
+        <v>35000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1011600</v>
+        <v>1028500</v>
       </c>
       <c r="E66" s="3">
-        <v>759500</v>
+        <v>772200</v>
       </c>
       <c r="F66" s="3">
-        <v>458500</v>
+        <v>466200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1579200</v>
+        <v>1605600</v>
       </c>
       <c r="F70" s="3">
-        <v>816100</v>
+        <v>829800</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-998100</v>
+        <v>-1014900</v>
       </c>
       <c r="E72" s="3">
-        <v>-876200</v>
+        <v>-890900</v>
       </c>
       <c r="F72" s="3">
-        <v>-370900</v>
+        <v>-377100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4589200</v>
+        <v>4666100</v>
       </c>
       <c r="E76" s="3">
-        <v>-873800</v>
+        <v>-888400</v>
       </c>
       <c r="F76" s="3">
-        <v>-384500</v>
+        <v>-390900</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-121900</v>
+        <v>-124000</v>
       </c>
       <c r="E81" s="3">
-        <v>-505300</v>
+        <v>-513800</v>
       </c>
       <c r="F81" s="3">
-        <v>-284800</v>
+        <v>-289600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>49400</v>
+        <v>50300</v>
       </c>
       <c r="E83" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="F83" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>483500</v>
+        <v>491600</v>
       </c>
       <c r="E89" s="3">
-        <v>-276200</v>
+        <v>-280800</v>
       </c>
       <c r="F89" s="3">
-        <v>-207400</v>
+        <v>-210900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-104000</v>
+        <v>-105700</v>
       </c>
       <c r="E91" s="3">
-        <v>-146700</v>
+        <v>-149200</v>
       </c>
       <c r="F91" s="3">
-        <v>-149500</v>
+        <v>-152000</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2885200</v>
+        <v>-2933600</v>
       </c>
       <c r="E94" s="3">
-        <v>-396500</v>
+        <v>-403100</v>
       </c>
       <c r="F94" s="3">
-        <v>-29500</v>
+        <v>-30000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3805000</v>
+        <v>3868700</v>
       </c>
       <c r="E100" s="3">
-        <v>870900</v>
+        <v>885500</v>
       </c>
       <c r="F100" s="3">
-        <v>170700</v>
+        <v>173600</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-58000</v>
+        <v>-59000</v>
       </c>
       <c r="E101" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1345200</v>
+        <v>1367700</v>
       </c>
       <c r="E102" s="3">
-        <v>206500</v>
+        <v>209900</v>
       </c>
       <c r="F102" s="3">
-        <v>-65700</v>
+        <v>-66800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1480500</v>
+        <v>1491900</v>
       </c>
       <c r="E8" s="3">
-        <v>44500</v>
+        <v>44900</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1238000</v>
+        <v>1247500</v>
       </c>
       <c r="E9" s="3">
-        <v>44500</v>
+        <v>44900</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>242600</v>
+        <v>244400</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>165200</v>
+        <v>166400</v>
       </c>
       <c r="E12" s="3">
-        <v>176800</v>
+        <v>178200</v>
       </c>
       <c r="F12" s="3">
-        <v>121200</v>
+        <v>122100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -882,7 +882,7 @@
         <v>4800</v>
       </c>
       <c r="E14" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="E15" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="F15" s="3">
         <v>9500</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1585300</v>
+        <v>1597500</v>
       </c>
       <c r="E17" s="3">
-        <v>335500</v>
+        <v>338100</v>
       </c>
       <c r="F17" s="3">
-        <v>177100</v>
+        <v>178400</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-104800</v>
+        <v>-105600</v>
       </c>
       <c r="E18" s="3">
-        <v>-291000</v>
+        <v>-293200</v>
       </c>
       <c r="F18" s="3">
-        <v>-177100</v>
+        <v>-178400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>85700</v>
+        <v>86400</v>
       </c>
       <c r="E20" s="3">
-        <v>-74500</v>
+        <v>-75000</v>
       </c>
       <c r="F20" s="3">
         <v>4600</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>31100</v>
+        <v>31600</v>
       </c>
       <c r="E21" s="3">
-        <v>-347200</v>
+        <v>-349800</v>
       </c>
       <c r="F21" s="3">
-        <v>-163000</v>
+        <v>-164200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="E22" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="F22" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29600</v>
+        <v>-29800</v>
       </c>
       <c r="E23" s="3">
-        <v>-378500</v>
+        <v>-381400</v>
       </c>
       <c r="F23" s="3">
-        <v>-182400</v>
+        <v>-183800</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-26000</v>
+        <v>-26200</v>
       </c>
       <c r="E26" s="3">
-        <v>-378500</v>
+        <v>-381400</v>
       </c>
       <c r="F26" s="3">
-        <v>-182400</v>
+        <v>-183800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-126200</v>
+        <v>-127200</v>
       </c>
       <c r="E27" s="3">
-        <v>-510500</v>
+        <v>-514400</v>
       </c>
       <c r="F27" s="3">
-        <v>-232100</v>
+        <v>-233900</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1297,10 +1297,10 @@
         <v>2300</v>
       </c>
       <c r="E29" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="F29" s="3">
-        <v>-57500</v>
+        <v>-57900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1384,10 +1384,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-85700</v>
+        <v>-86400</v>
       </c>
       <c r="E32" s="3">
-        <v>74500</v>
+        <v>75000</v>
       </c>
       <c r="F32" s="3">
         <v>-4600</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-124000</v>
+        <v>-124900</v>
       </c>
       <c r="E33" s="3">
-        <v>-513800</v>
+        <v>-517700</v>
       </c>
       <c r="F33" s="3">
-        <v>-289600</v>
+        <v>-291800</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-124000</v>
+        <v>-124900</v>
       </c>
       <c r="E35" s="3">
-        <v>-513800</v>
+        <v>-517700</v>
       </c>
       <c r="F35" s="3">
-        <v>-289600</v>
+        <v>-291800</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1399400</v>
+        <v>1410100</v>
       </c>
       <c r="E41" s="3">
-        <v>202900</v>
+        <v>204500</v>
       </c>
       <c r="F41" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3084400</v>
+        <v>3108100</v>
       </c>
       <c r="E42" s="3">
-        <v>355800</v>
+        <v>358500</v>
       </c>
       <c r="F42" s="3">
-        <v>134600</v>
+        <v>135700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>50000</v>
+        <v>50400</v>
       </c>
       <c r="E43" s="3">
-        <v>80100</v>
+        <v>80700</v>
       </c>
       <c r="F43" s="3">
-        <v>199300</v>
+        <v>200800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,10 +1657,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>164100</v>
+        <v>165300</v>
       </c>
       <c r="E44" s="3">
-        <v>81100</v>
+        <v>81700</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>216600</v>
+        <v>218300</v>
       </c>
       <c r="E45" s="3">
-        <v>73200</v>
+        <v>73700</v>
       </c>
       <c r="F45" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4914600</v>
+        <v>4952300</v>
       </c>
       <c r="E46" s="3">
-        <v>793100</v>
+        <v>799200</v>
       </c>
       <c r="F46" s="3">
-        <v>359200</v>
+        <v>362000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="E47" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="F47" s="3">
-        <v>27700</v>
+        <v>27900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>588000</v>
+        <v>592500</v>
       </c>
       <c r="E48" s="3">
-        <v>517500</v>
+        <v>521500</v>
       </c>
       <c r="F48" s="3">
-        <v>315200</v>
+        <v>317600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>107000</v>
+        <v>107800</v>
       </c>
       <c r="E49" s="3">
-        <v>105500</v>
+        <v>106300</v>
       </c>
       <c r="F49" s="3">
-        <v>105100</v>
+        <v>105900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>59500</v>
+        <v>60000</v>
       </c>
       <c r="E52" s="3">
-        <v>53600</v>
+        <v>54000</v>
       </c>
       <c r="F52" s="3">
-        <v>97800</v>
+        <v>98600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5694600</v>
+        <v>5738200</v>
       </c>
       <c r="E54" s="3">
-        <v>1489400</v>
+        <v>1500800</v>
       </c>
       <c r="F54" s="3">
-        <v>905100</v>
+        <v>912000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,10 +2015,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>468400</v>
+        <v>471900</v>
       </c>
       <c r="E57" s="3">
-        <v>97800</v>
+        <v>98500</v>
       </c>
       <c r="F57" s="3">
         <v>3500</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="E58" s="3">
-        <v>202300</v>
+        <v>203900</v>
       </c>
       <c r="F58" s="3">
-        <v>62800</v>
+        <v>63200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>179800</v>
+        <v>181200</v>
       </c>
       <c r="E59" s="3">
-        <v>432500</v>
+        <v>435900</v>
       </c>
       <c r="F59" s="3">
-        <v>207600</v>
+        <v>209200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>674700</v>
+        <v>679800</v>
       </c>
       <c r="E60" s="3">
-        <v>732700</v>
+        <v>738300</v>
       </c>
       <c r="F60" s="3">
-        <v>273900</v>
+        <v>276000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>137500</v>
+        <v>138600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>157300</v>
+        <v>158500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>216400</v>
+        <v>218000</v>
       </c>
       <c r="E62" s="3">
-        <v>39500</v>
+        <v>39800</v>
       </c>
       <c r="F62" s="3">
-        <v>35000</v>
+        <v>35200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1028500</v>
+        <v>1036400</v>
       </c>
       <c r="E66" s="3">
-        <v>772200</v>
+        <v>778100</v>
       </c>
       <c r="F66" s="3">
-        <v>466200</v>
+        <v>469800</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1605600</v>
+        <v>1617900</v>
       </c>
       <c r="F70" s="3">
-        <v>829800</v>
+        <v>836200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1014900</v>
+        <v>-1022600</v>
       </c>
       <c r="E72" s="3">
-        <v>-890900</v>
+        <v>-897700</v>
       </c>
       <c r="F72" s="3">
-        <v>-377100</v>
+        <v>-380000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4666100</v>
+        <v>4701800</v>
       </c>
       <c r="E76" s="3">
-        <v>-888400</v>
+        <v>-895200</v>
       </c>
       <c r="F76" s="3">
-        <v>-390900</v>
+        <v>-394000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-124000</v>
+        <v>-124900</v>
       </c>
       <c r="E81" s="3">
-        <v>-513800</v>
+        <v>-517700</v>
       </c>
       <c r="F81" s="3">
-        <v>-289600</v>
+        <v>-291800</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50300</v>
+        <v>50600</v>
       </c>
       <c r="E83" s="3">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="F83" s="3">
         <v>9500</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>491600</v>
+        <v>495300</v>
       </c>
       <c r="E89" s="3">
-        <v>-280800</v>
+        <v>-283000</v>
       </c>
       <c r="F89" s="3">
-        <v>-210900</v>
+        <v>-212500</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-105700</v>
+        <v>-106500</v>
       </c>
       <c r="E91" s="3">
-        <v>-149200</v>
+        <v>-150300</v>
       </c>
       <c r="F91" s="3">
-        <v>-152000</v>
+        <v>-153100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2933600</v>
+        <v>-2956100</v>
       </c>
       <c r="E94" s="3">
-        <v>-403100</v>
+        <v>-406200</v>
       </c>
       <c r="F94" s="3">
-        <v>-30000</v>
+        <v>-30200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3868700</v>
+        <v>3898400</v>
       </c>
       <c r="E100" s="3">
-        <v>885500</v>
+        <v>892200</v>
       </c>
       <c r="F100" s="3">
-        <v>173600</v>
+        <v>174900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-59000</v>
+        <v>-59400</v>
       </c>
       <c r="E101" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1367700</v>
+        <v>1378200</v>
       </c>
       <c r="E102" s="3">
-        <v>209900</v>
+        <v>211500</v>
       </c>
       <c r="F102" s="3">
-        <v>-66800</v>
+        <v>-67300</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1491900</v>
+        <v>3980200</v>
       </c>
       <c r="E8" s="3">
-        <v>44900</v>
+        <v>1393500</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>41900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,20 +741,23 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1247500</v>
+        <v>3131200</v>
       </c>
       <c r="E9" s="3">
-        <v>44900</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>1165200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>41900</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -768,20 +774,23 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>244400</v>
+        <v>849000</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>228300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>476300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>155400</v>
+      </c>
+      <c r="F12" s="3">
         <v>166400</v>
       </c>
-      <c r="E12" s="3">
-        <v>178200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>122100</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+      <c r="G12" s="3">
+        <v>114100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,23 +888,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -902,23 +921,26 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13100</v>
+        <v>20200</v>
       </c>
       <c r="E15" s="3">
-        <v>15300</v>
+        <v>12200</v>
       </c>
       <c r="F15" s="3">
-        <v>9500</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>14300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1597500</v>
+        <v>4130100</v>
       </c>
       <c r="E17" s="3">
-        <v>338100</v>
+        <v>1492200</v>
       </c>
       <c r="F17" s="3">
-        <v>178400</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>315800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>166700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-105600</v>
+        <v>-149900</v>
       </c>
       <c r="E18" s="3">
-        <v>-293200</v>
+        <v>-98600</v>
       </c>
       <c r="F18" s="3">
-        <v>-178400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-273900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-166700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,22 +1050,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>86400</v>
+        <v>136700</v>
       </c>
       <c r="E20" s="3">
-        <v>-75000</v>
+        <v>80700</v>
       </c>
       <c r="F20" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>-70100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4300</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>31600</v>
+        <v>74700</v>
       </c>
       <c r="E21" s="3">
-        <v>-349800</v>
+        <v>29800</v>
       </c>
       <c r="F21" s="3">
-        <v>-164200</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-326600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-153400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,23 +1113,26 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10600</v>
+        <v>9300</v>
       </c>
       <c r="E22" s="3">
-        <v>13200</v>
+        <v>9900</v>
       </c>
       <c r="F22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>12300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29800</v>
+        <v>-22500</v>
       </c>
       <c r="E23" s="3">
-        <v>-381400</v>
+        <v>-27800</v>
       </c>
       <c r="F23" s="3">
-        <v>-183800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-356300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-171700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3600</v>
+        <v>24900</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1164,12 +1209,15 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-26200</v>
+        <v>-47400</v>
       </c>
       <c r="E26" s="3">
-        <v>-381400</v>
+        <v>-24500</v>
       </c>
       <c r="F26" s="3">
-        <v>-183800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-356300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-171700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-127200</v>
+        <v>-47400</v>
       </c>
       <c r="E27" s="3">
-        <v>-514400</v>
+        <v>-118800</v>
       </c>
       <c r="F27" s="3">
-        <v>-233900</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-480500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-218500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,23 +1344,26 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-3300</v>
+        <v>2100</v>
       </c>
       <c r="F29" s="3">
-        <v>-57900</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+        <v>-3000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-54100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,23 +1443,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-86400</v>
+        <v>-136700</v>
       </c>
       <c r="E32" s="3">
-        <v>75000</v>
+        <v>-80700</v>
       </c>
       <c r="F32" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>70100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-4300</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-124900</v>
+        <v>-47400</v>
       </c>
       <c r="E33" s="3">
-        <v>-517700</v>
+        <v>-116700</v>
       </c>
       <c r="F33" s="3">
-        <v>-291800</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-483600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-272600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-124900</v>
+        <v>-47400</v>
       </c>
       <c r="E35" s="3">
-        <v>-517700</v>
+        <v>-116700</v>
       </c>
       <c r="F35" s="3">
-        <v>-291800</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-483600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-272600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1410100</v>
+        <v>4104600</v>
       </c>
       <c r="E41" s="3">
-        <v>204500</v>
+        <v>1317200</v>
       </c>
       <c r="F41" s="3">
-        <v>11100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>191000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>10300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3108100</v>
+        <v>2898300</v>
       </c>
       <c r="E42" s="3">
-        <v>358500</v>
+        <v>2903200</v>
       </c>
       <c r="F42" s="3">
-        <v>135700</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>334900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>126700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>50400</v>
+        <v>39100</v>
       </c>
       <c r="E43" s="3">
-        <v>80700</v>
+        <v>47100</v>
       </c>
       <c r="F43" s="3">
-        <v>200800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>75400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>187600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,23 +1742,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>165300</v>
+        <v>238400</v>
       </c>
       <c r="E44" s="3">
-        <v>81700</v>
+        <v>154400</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>76300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>218300</v>
+        <v>438400</v>
       </c>
       <c r="E45" s="3">
-        <v>73700</v>
+        <v>203900</v>
       </c>
       <c r="F45" s="3">
-        <v>14400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>68900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>13400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4952300</v>
+        <v>7718800</v>
       </c>
       <c r="E46" s="3">
-        <v>799200</v>
+        <v>4625800</v>
       </c>
       <c r="F46" s="3">
-        <v>362000</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>746500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>338100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,23 +1841,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25700</v>
+        <v>22500</v>
       </c>
       <c r="E47" s="3">
-        <v>19900</v>
+        <v>24000</v>
       </c>
       <c r="F47" s="3">
-        <v>27900</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>18600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>26100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>592500</v>
+        <v>966600</v>
       </c>
       <c r="E48" s="3">
-        <v>521500</v>
+        <v>553400</v>
       </c>
       <c r="F48" s="3">
-        <v>317600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>487100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>296700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,23 +1907,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>107800</v>
+        <v>110700</v>
       </c>
       <c r="E49" s="3">
-        <v>106300</v>
+        <v>100700</v>
       </c>
       <c r="F49" s="3">
-        <v>105900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>99300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>98900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>60000</v>
+        <v>295400</v>
       </c>
       <c r="E52" s="3">
-        <v>54000</v>
+        <v>56000</v>
       </c>
       <c r="F52" s="3">
-        <v>98600</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>50400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>92100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5738200</v>
+        <v>9114100</v>
       </c>
       <c r="E54" s="3">
-        <v>1500800</v>
+        <v>5360000</v>
       </c>
       <c r="F54" s="3">
-        <v>912000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>1401900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>851900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>471900</v>
+        <v>1044700</v>
       </c>
       <c r="E57" s="3">
-        <v>98500</v>
+        <v>440800</v>
       </c>
       <c r="F57" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>92100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26700</v>
+        <v>342400</v>
       </c>
       <c r="E58" s="3">
-        <v>203900</v>
+        <v>24900</v>
       </c>
       <c r="F58" s="3">
-        <v>63200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>190400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>59100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>181200</v>
+        <v>397200</v>
       </c>
       <c r="E59" s="3">
-        <v>435900</v>
+        <v>169300</v>
       </c>
       <c r="F59" s="3">
-        <v>209200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>407100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>195400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>679800</v>
+        <v>1784300</v>
       </c>
       <c r="E60" s="3">
-        <v>738300</v>
+        <v>635000</v>
       </c>
       <c r="F60" s="3">
-        <v>276000</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>689600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>257800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>138600</v>
+        <v>878400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>129500</v>
       </c>
       <c r="F61" s="3">
-        <v>158500</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>148100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>218000</v>
+        <v>400200</v>
       </c>
       <c r="E62" s="3">
-        <v>39800</v>
+        <v>203600</v>
       </c>
       <c r="F62" s="3">
-        <v>35200</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>37200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>32900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1036400</v>
+        <v>3062800</v>
       </c>
       <c r="E66" s="3">
-        <v>778100</v>
+        <v>968100</v>
       </c>
       <c r="F66" s="3">
-        <v>469800</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>726800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>438800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1617900</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>836200</v>
+        <v>1511300</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>781000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1022600</v>
+        <v>-1002900</v>
       </c>
       <c r="E72" s="3">
-        <v>-897700</v>
+        <v>-955200</v>
       </c>
       <c r="F72" s="3">
-        <v>-380000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-838500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-354900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4701800</v>
+        <v>6051200</v>
       </c>
       <c r="E76" s="3">
-        <v>-895200</v>
+        <v>4391900</v>
       </c>
       <c r="F76" s="3">
-        <v>-394000</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-836200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-367900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-124900</v>
+        <v>-47400</v>
       </c>
       <c r="E81" s="3">
-        <v>-517700</v>
+        <v>-116700</v>
       </c>
       <c r="F81" s="3">
-        <v>-291800</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-483600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-272600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,22 +2899,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50600</v>
+        <v>87000</v>
       </c>
       <c r="E83" s="3">
-        <v>18400</v>
+        <v>47300</v>
       </c>
       <c r="F83" s="3">
-        <v>9500</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>17200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>8900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>495300</v>
+        <v>1229000</v>
       </c>
       <c r="E89" s="3">
-        <v>-283000</v>
+        <v>462700</v>
       </c>
       <c r="F89" s="3">
-        <v>-212500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-264300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-198500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-106500</v>
+        <v>-507600</v>
       </c>
       <c r="E91" s="3">
-        <v>-150300</v>
+        <v>-99500</v>
       </c>
       <c r="F91" s="3">
-        <v>-153100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-140400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-143000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2956100</v>
+        <v>-627300</v>
       </c>
       <c r="E94" s="3">
-        <v>-406200</v>
+        <v>-2761200</v>
       </c>
       <c r="F94" s="3">
-        <v>-30200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-379400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-28200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3898400</v>
+        <v>2462300</v>
       </c>
       <c r="E100" s="3">
-        <v>892200</v>
+        <v>3641400</v>
       </c>
       <c r="F100" s="3">
-        <v>174900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>833400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>163400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,24 +3454,27 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-59400</v>
+        <v>-69600</v>
       </c>
       <c r="E101" s="3">
-        <v>8500</v>
+        <v>-55500</v>
       </c>
       <c r="F101" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1378200</v>
+        <v>2994400</v>
       </c>
       <c r="E102" s="3">
-        <v>211500</v>
+        <v>1287400</v>
       </c>
       <c r="F102" s="3">
-        <v>-67300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>197600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-62800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3980200</v>
+        <v>3944200</v>
       </c>
       <c r="E8" s="3">
-        <v>1393500</v>
+        <v>1380900</v>
       </c>
       <c r="F8" s="3">
-        <v>41900</v>
+        <v>41500</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3131200</v>
+        <v>3102900</v>
       </c>
       <c r="E9" s="3">
-        <v>1165200</v>
+        <v>1154700</v>
       </c>
       <c r="F9" s="3">
-        <v>41900</v>
+        <v>41500</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -784,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>849000</v>
+        <v>841300</v>
       </c>
       <c r="E10" s="3">
-        <v>228300</v>
+        <v>226200</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>476300</v>
+        <v>472000</v>
       </c>
       <c r="E12" s="3">
-        <v>155400</v>
+        <v>154000</v>
       </c>
       <c r="F12" s="3">
-        <v>166400</v>
+        <v>164900</v>
       </c>
       <c r="G12" s="3">
-        <v>114100</v>
+        <v>113100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F14" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="E15" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="F15" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="G15" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4130100</v>
+        <v>4092800</v>
       </c>
       <c r="E17" s="3">
-        <v>1492200</v>
+        <v>1478700</v>
       </c>
       <c r="F17" s="3">
-        <v>315800</v>
+        <v>312900</v>
       </c>
       <c r="G17" s="3">
-        <v>166700</v>
+        <v>165100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-149900</v>
+        <v>-148600</v>
       </c>
       <c r="E18" s="3">
-        <v>-98600</v>
+        <v>-97700</v>
       </c>
       <c r="F18" s="3">
-        <v>-273900</v>
+        <v>-271400</v>
       </c>
       <c r="G18" s="3">
-        <v>-166700</v>
+        <v>-165100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>136700</v>
+        <v>135500</v>
       </c>
       <c r="E20" s="3">
-        <v>80700</v>
+        <v>79900</v>
       </c>
       <c r="F20" s="3">
-        <v>-70100</v>
+        <v>-69500</v>
       </c>
       <c r="G20" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>74700</v>
+        <v>73000</v>
       </c>
       <c r="E21" s="3">
-        <v>29800</v>
+        <v>29000</v>
       </c>
       <c r="F21" s="3">
-        <v>-326600</v>
+        <v>-323900</v>
       </c>
       <c r="G21" s="3">
-        <v>-153400</v>
+        <v>-152100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G22" s="3">
         <v>9300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>9900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>12300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>9400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-22500</v>
+        <v>-22300</v>
       </c>
       <c r="E23" s="3">
-        <v>-27800</v>
+        <v>-27600</v>
       </c>
       <c r="F23" s="3">
-        <v>-356300</v>
+        <v>-353100</v>
       </c>
       <c r="G23" s="3">
-        <v>-171700</v>
+        <v>-170200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="E24" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-47400</v>
+        <v>-46900</v>
       </c>
       <c r="E26" s="3">
-        <v>-24500</v>
+        <v>-24200</v>
       </c>
       <c r="F26" s="3">
-        <v>-356300</v>
+        <v>-353100</v>
       </c>
       <c r="G26" s="3">
-        <v>-171700</v>
+        <v>-170200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-47400</v>
+        <v>-46900</v>
       </c>
       <c r="E27" s="3">
-        <v>-118800</v>
+        <v>-117800</v>
       </c>
       <c r="F27" s="3">
-        <v>-480500</v>
+        <v>-476200</v>
       </c>
       <c r="G27" s="3">
-        <v>-218500</v>
+        <v>-216500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1363,7 +1363,7 @@
         <v>-3000</v>
       </c>
       <c r="G29" s="3">
-        <v>-54100</v>
+        <v>-53600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-136700</v>
+        <v>-135500</v>
       </c>
       <c r="E32" s="3">
-        <v>-80700</v>
+        <v>-79900</v>
       </c>
       <c r="F32" s="3">
-        <v>70100</v>
+        <v>69500</v>
       </c>
       <c r="G32" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-47400</v>
+        <v>-46900</v>
       </c>
       <c r="E33" s="3">
-        <v>-116700</v>
+        <v>-115700</v>
       </c>
       <c r="F33" s="3">
-        <v>-483600</v>
+        <v>-479200</v>
       </c>
       <c r="G33" s="3">
-        <v>-272600</v>
+        <v>-270100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-47400</v>
+        <v>-46900</v>
       </c>
       <c r="E35" s="3">
-        <v>-116700</v>
+        <v>-115700</v>
       </c>
       <c r="F35" s="3">
-        <v>-483600</v>
+        <v>-479200</v>
       </c>
       <c r="G35" s="3">
-        <v>-272600</v>
+        <v>-270100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,13 +1653,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4104600</v>
+        <v>4067600</v>
       </c>
       <c r="E41" s="3">
-        <v>1317200</v>
+        <v>1305300</v>
       </c>
       <c r="F41" s="3">
-        <v>191000</v>
+        <v>189300</v>
       </c>
       <c r="G41" s="3">
         <v>10300</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2898300</v>
+        <v>2872200</v>
       </c>
       <c r="E42" s="3">
-        <v>2903200</v>
+        <v>2877000</v>
       </c>
       <c r="F42" s="3">
-        <v>334900</v>
+        <v>331900</v>
       </c>
       <c r="G42" s="3">
-        <v>126700</v>
+        <v>125600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="E43" s="3">
-        <v>47100</v>
+        <v>46700</v>
       </c>
       <c r="F43" s="3">
-        <v>75400</v>
+        <v>74700</v>
       </c>
       <c r="G43" s="3">
-        <v>187600</v>
+        <v>185900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>238400</v>
+        <v>236300</v>
       </c>
       <c r="E44" s="3">
-        <v>154400</v>
+        <v>153000</v>
       </c>
       <c r="F44" s="3">
-        <v>76300</v>
+        <v>75700</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>438400</v>
+        <v>434400</v>
       </c>
       <c r="E45" s="3">
-        <v>203900</v>
+        <v>202100</v>
       </c>
       <c r="F45" s="3">
-        <v>68900</v>
+        <v>68300</v>
       </c>
       <c r="G45" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7718800</v>
+        <v>7649100</v>
       </c>
       <c r="E46" s="3">
-        <v>4625800</v>
+        <v>4584000</v>
       </c>
       <c r="F46" s="3">
-        <v>746500</v>
+        <v>739800</v>
       </c>
       <c r="G46" s="3">
-        <v>338100</v>
+        <v>335000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="E47" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="F47" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="G47" s="3">
-        <v>26100</v>
+        <v>25900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>966600</v>
+        <v>957900</v>
       </c>
       <c r="E48" s="3">
-        <v>553400</v>
+        <v>548400</v>
       </c>
       <c r="F48" s="3">
-        <v>487100</v>
+        <v>482700</v>
       </c>
       <c r="G48" s="3">
-        <v>296700</v>
+        <v>294000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>110700</v>
+        <v>109700</v>
       </c>
       <c r="E49" s="3">
-        <v>100700</v>
+        <v>99800</v>
       </c>
       <c r="F49" s="3">
-        <v>99300</v>
+        <v>98400</v>
       </c>
       <c r="G49" s="3">
-        <v>98900</v>
+        <v>98000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>295400</v>
+        <v>292800</v>
       </c>
       <c r="E52" s="3">
-        <v>56000</v>
+        <v>55500</v>
       </c>
       <c r="F52" s="3">
-        <v>50400</v>
+        <v>50000</v>
       </c>
       <c r="G52" s="3">
-        <v>92100</v>
+        <v>91300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9114100</v>
+        <v>9031800</v>
       </c>
       <c r="E54" s="3">
-        <v>5360000</v>
+        <v>5311600</v>
       </c>
       <c r="F54" s="3">
-        <v>1401900</v>
+        <v>1389200</v>
       </c>
       <c r="G54" s="3">
-        <v>851900</v>
+        <v>844200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,13 +2145,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1044700</v>
+        <v>1035300</v>
       </c>
       <c r="E57" s="3">
-        <v>440800</v>
+        <v>436900</v>
       </c>
       <c r="F57" s="3">
-        <v>92100</v>
+        <v>91200</v>
       </c>
       <c r="G57" s="3">
         <v>3300</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>342400</v>
+        <v>339300</v>
       </c>
       <c r="E58" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="F58" s="3">
-        <v>190400</v>
+        <v>188700</v>
       </c>
       <c r="G58" s="3">
-        <v>59100</v>
+        <v>58500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>397200</v>
+        <v>393600</v>
       </c>
       <c r="E59" s="3">
-        <v>169300</v>
+        <v>167700</v>
       </c>
       <c r="F59" s="3">
-        <v>407100</v>
+        <v>403500</v>
       </c>
       <c r="G59" s="3">
-        <v>195400</v>
+        <v>193700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1784300</v>
+        <v>1768200</v>
       </c>
       <c r="E60" s="3">
-        <v>635000</v>
+        <v>629300</v>
       </c>
       <c r="F60" s="3">
-        <v>689600</v>
+        <v>683400</v>
       </c>
       <c r="G60" s="3">
-        <v>257800</v>
+        <v>255500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>878400</v>
+        <v>870500</v>
       </c>
       <c r="E61" s="3">
-        <v>129500</v>
+        <v>128300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>148100</v>
+        <v>146800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400200</v>
+        <v>396500</v>
       </c>
       <c r="E62" s="3">
-        <v>203600</v>
+        <v>201800</v>
       </c>
       <c r="F62" s="3">
-        <v>37200</v>
+        <v>36900</v>
       </c>
       <c r="G62" s="3">
-        <v>32900</v>
+        <v>32600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3062800</v>
+        <v>3035200</v>
       </c>
       <c r="E66" s="3">
-        <v>968100</v>
+        <v>959400</v>
       </c>
       <c r="F66" s="3">
-        <v>726800</v>
+        <v>720300</v>
       </c>
       <c r="G66" s="3">
-        <v>438800</v>
+        <v>434800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1511300</v>
+        <v>1497600</v>
       </c>
       <c r="G70" s="3">
-        <v>781000</v>
+        <v>774000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1002900</v>
+        <v>-993800</v>
       </c>
       <c r="E72" s="3">
-        <v>-955200</v>
+        <v>-946600</v>
       </c>
       <c r="F72" s="3">
-        <v>-838500</v>
+        <v>-830900</v>
       </c>
       <c r="G72" s="3">
-        <v>-354900</v>
+        <v>-351700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6051200</v>
+        <v>5996600</v>
       </c>
       <c r="E76" s="3">
-        <v>4391900</v>
+        <v>4352200</v>
       </c>
       <c r="F76" s="3">
-        <v>-836200</v>
+        <v>-828600</v>
       </c>
       <c r="G76" s="3">
-        <v>-367900</v>
+        <v>-364600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-47400</v>
+        <v>-46900</v>
       </c>
       <c r="E81" s="3">
-        <v>-116700</v>
+        <v>-115700</v>
       </c>
       <c r="F81" s="3">
-        <v>-483600</v>
+        <v>-479200</v>
       </c>
       <c r="G81" s="3">
-        <v>-272600</v>
+        <v>-270100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>87000</v>
+        <v>86200</v>
       </c>
       <c r="E83" s="3">
-        <v>47300</v>
+        <v>46900</v>
       </c>
       <c r="F83" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="G83" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1229000</v>
+        <v>1217900</v>
       </c>
       <c r="E89" s="3">
-        <v>462700</v>
+        <v>458500</v>
       </c>
       <c r="F89" s="3">
-        <v>-264300</v>
+        <v>-261900</v>
       </c>
       <c r="G89" s="3">
-        <v>-198500</v>
+        <v>-196700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-507600</v>
+        <v>-503000</v>
       </c>
       <c r="E91" s="3">
-        <v>-99500</v>
+        <v>-98600</v>
       </c>
       <c r="F91" s="3">
-        <v>-140400</v>
+        <v>-139200</v>
       </c>
       <c r="G91" s="3">
-        <v>-143000</v>
+        <v>-141800</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-627300</v>
+        <v>-621700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2761200</v>
+        <v>-2736300</v>
       </c>
       <c r="F94" s="3">
-        <v>-379400</v>
+        <v>-376000</v>
       </c>
       <c r="G94" s="3">
-        <v>-28200</v>
+        <v>-28000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2462300</v>
+        <v>2440100</v>
       </c>
       <c r="E100" s="3">
-        <v>3641400</v>
+        <v>3608500</v>
       </c>
       <c r="F100" s="3">
-        <v>833400</v>
+        <v>825900</v>
       </c>
       <c r="G100" s="3">
-        <v>163400</v>
+        <v>161900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-69600</v>
+        <v>-68900</v>
       </c>
       <c r="E101" s="3">
-        <v>-55500</v>
+        <v>-55000</v>
       </c>
       <c r="F101" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G101" s="3">
         <v>500</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2994400</v>
+        <v>2967400</v>
       </c>
       <c r="E102" s="3">
-        <v>1287400</v>
+        <v>1275700</v>
       </c>
       <c r="F102" s="3">
-        <v>197600</v>
+        <v>195800</v>
       </c>
       <c r="G102" s="3">
-        <v>-62800</v>
+        <v>-62300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3944200</v>
+        <v>3759800</v>
       </c>
       <c r="E8" s="3">
-        <v>1380900</v>
+        <v>1316400</v>
       </c>
       <c r="F8" s="3">
-        <v>41500</v>
+        <v>39600</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3102900</v>
+        <v>2957800</v>
       </c>
       <c r="E9" s="3">
-        <v>1154700</v>
+        <v>1100700</v>
       </c>
       <c r="F9" s="3">
-        <v>41500</v>
+        <v>39600</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -784,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>841300</v>
+        <v>802000</v>
       </c>
       <c r="E10" s="3">
-        <v>226200</v>
+        <v>215700</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>472000</v>
+        <v>449900</v>
       </c>
       <c r="E12" s="3">
-        <v>154000</v>
+        <v>146800</v>
       </c>
       <c r="F12" s="3">
-        <v>164900</v>
+        <v>157200</v>
       </c>
       <c r="G12" s="3">
-        <v>113100</v>
+        <v>107800</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="F14" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20000</v>
+        <v>19100</v>
       </c>
       <c r="E15" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="F15" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="G15" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4092800</v>
+        <v>3901400</v>
       </c>
       <c r="E17" s="3">
-        <v>1478700</v>
+        <v>1409500</v>
       </c>
       <c r="F17" s="3">
-        <v>312900</v>
+        <v>298300</v>
       </c>
       <c r="G17" s="3">
-        <v>165100</v>
+        <v>157400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-148600</v>
+        <v>-141600</v>
       </c>
       <c r="E18" s="3">
-        <v>-97700</v>
+        <v>-93200</v>
       </c>
       <c r="F18" s="3">
-        <v>-271400</v>
+        <v>-258700</v>
       </c>
       <c r="G18" s="3">
-        <v>-165100</v>
+        <v>-157400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>135500</v>
+        <v>129100</v>
       </c>
       <c r="E20" s="3">
-        <v>79900</v>
+        <v>76200</v>
       </c>
       <c r="F20" s="3">
-        <v>-69500</v>
+        <v>-66200</v>
       </c>
       <c r="G20" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>73000</v>
+        <v>69100</v>
       </c>
       <c r="E21" s="3">
-        <v>29000</v>
+        <v>27400</v>
       </c>
       <c r="F21" s="3">
-        <v>-323900</v>
+        <v>-308800</v>
       </c>
       <c r="G21" s="3">
-        <v>-152100</v>
+        <v>-145000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="E22" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="F22" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="G22" s="3">
-        <v>9300</v>
+        <v>8800</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-22300</v>
+        <v>-21300</v>
       </c>
       <c r="E23" s="3">
-        <v>-27600</v>
+        <v>-26300</v>
       </c>
       <c r="F23" s="3">
-        <v>-353100</v>
+        <v>-336600</v>
       </c>
       <c r="G23" s="3">
-        <v>-170200</v>
+        <v>-162200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="E24" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46900</v>
+        <v>-44700</v>
       </c>
       <c r="E26" s="3">
-        <v>-24200</v>
+        <v>-23100</v>
       </c>
       <c r="F26" s="3">
-        <v>-353100</v>
+        <v>-336600</v>
       </c>
       <c r="G26" s="3">
-        <v>-170200</v>
+        <v>-162200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46900</v>
+        <v>-44700</v>
       </c>
       <c r="E27" s="3">
-        <v>-117800</v>
+        <v>-112200</v>
       </c>
       <c r="F27" s="3">
-        <v>-476200</v>
+        <v>-453900</v>
       </c>
       <c r="G27" s="3">
-        <v>-216500</v>
+        <v>-206400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1357,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F29" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G29" s="3">
-        <v>-53600</v>
+        <v>-51100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-135500</v>
+        <v>-129100</v>
       </c>
       <c r="E32" s="3">
-        <v>-79900</v>
+        <v>-76200</v>
       </c>
       <c r="F32" s="3">
-        <v>69500</v>
+        <v>66200</v>
       </c>
       <c r="G32" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46900</v>
+        <v>-44700</v>
       </c>
       <c r="E33" s="3">
-        <v>-115700</v>
+        <v>-110200</v>
       </c>
       <c r="F33" s="3">
-        <v>-479200</v>
+        <v>-456800</v>
       </c>
       <c r="G33" s="3">
-        <v>-270100</v>
+        <v>-257500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46900</v>
+        <v>-44700</v>
       </c>
       <c r="E35" s="3">
-        <v>-115700</v>
+        <v>-110200</v>
       </c>
       <c r="F35" s="3">
-        <v>-479200</v>
+        <v>-456800</v>
       </c>
       <c r="G35" s="3">
-        <v>-270100</v>
+        <v>-257500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4067600</v>
+        <v>3877300</v>
       </c>
       <c r="E41" s="3">
-        <v>1305300</v>
+        <v>1244200</v>
       </c>
       <c r="F41" s="3">
-        <v>189300</v>
+        <v>180400</v>
       </c>
       <c r="G41" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2872200</v>
+        <v>2737800</v>
       </c>
       <c r="E42" s="3">
-        <v>2877000</v>
+        <v>2742400</v>
       </c>
       <c r="F42" s="3">
-        <v>331900</v>
+        <v>316400</v>
       </c>
       <c r="G42" s="3">
-        <v>125600</v>
+        <v>119700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38700</v>
+        <v>36900</v>
       </c>
       <c r="E43" s="3">
-        <v>46700</v>
+        <v>44500</v>
       </c>
       <c r="F43" s="3">
-        <v>74700</v>
+        <v>71200</v>
       </c>
       <c r="G43" s="3">
-        <v>185900</v>
+        <v>177200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>236300</v>
+        <v>225200</v>
       </c>
       <c r="E44" s="3">
-        <v>153000</v>
+        <v>145900</v>
       </c>
       <c r="F44" s="3">
-        <v>75700</v>
+        <v>72100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>434400</v>
+        <v>414100</v>
       </c>
       <c r="E45" s="3">
-        <v>202100</v>
+        <v>192600</v>
       </c>
       <c r="F45" s="3">
-        <v>68300</v>
+        <v>65100</v>
       </c>
       <c r="G45" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7649100</v>
+        <v>7291400</v>
       </c>
       <c r="E46" s="3">
-        <v>4584000</v>
+        <v>4369600</v>
       </c>
       <c r="F46" s="3">
-        <v>739800</v>
+        <v>705200</v>
       </c>
       <c r="G46" s="3">
-        <v>335000</v>
+        <v>319400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>22300</v>
+        <v>21200</v>
       </c>
       <c r="E47" s="3">
-        <v>23800</v>
+        <v>22700</v>
       </c>
       <c r="F47" s="3">
-        <v>18400</v>
+        <v>17600</v>
       </c>
       <c r="G47" s="3">
-        <v>25900</v>
+        <v>24700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>957900</v>
+        <v>913100</v>
       </c>
       <c r="E48" s="3">
-        <v>548400</v>
+        <v>522800</v>
       </c>
       <c r="F48" s="3">
-        <v>482700</v>
+        <v>460100</v>
       </c>
       <c r="G48" s="3">
-        <v>294000</v>
+        <v>280200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>109700</v>
+        <v>104600</v>
       </c>
       <c r="E49" s="3">
-        <v>99800</v>
+        <v>95100</v>
       </c>
       <c r="F49" s="3">
-        <v>98400</v>
+        <v>93800</v>
       </c>
       <c r="G49" s="3">
-        <v>98000</v>
+        <v>93500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>292800</v>
+        <v>279100</v>
       </c>
       <c r="E52" s="3">
-        <v>55500</v>
+        <v>52900</v>
       </c>
       <c r="F52" s="3">
-        <v>50000</v>
+        <v>47600</v>
       </c>
       <c r="G52" s="3">
-        <v>91300</v>
+        <v>87000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9031800</v>
+        <v>8609400</v>
       </c>
       <c r="E54" s="3">
-        <v>5311600</v>
+        <v>5063200</v>
       </c>
       <c r="F54" s="3">
-        <v>1389200</v>
+        <v>1324300</v>
       </c>
       <c r="G54" s="3">
-        <v>844200</v>
+        <v>804700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1035300</v>
+        <v>986800</v>
       </c>
       <c r="E57" s="3">
-        <v>436900</v>
+        <v>416400</v>
       </c>
       <c r="F57" s="3">
-        <v>91200</v>
+        <v>87000</v>
       </c>
       <c r="G57" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>339300</v>
+        <v>323500</v>
       </c>
       <c r="E58" s="3">
-        <v>24700</v>
+        <v>23500</v>
       </c>
       <c r="F58" s="3">
-        <v>188700</v>
+        <v>179900</v>
       </c>
       <c r="G58" s="3">
-        <v>58500</v>
+        <v>55800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>393600</v>
+        <v>375200</v>
       </c>
       <c r="E59" s="3">
-        <v>167700</v>
+        <v>159900</v>
       </c>
       <c r="F59" s="3">
-        <v>403500</v>
+        <v>384600</v>
       </c>
       <c r="G59" s="3">
-        <v>193700</v>
+        <v>184600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1768200</v>
+        <v>1685500</v>
       </c>
       <c r="E60" s="3">
-        <v>629300</v>
+        <v>599800</v>
       </c>
       <c r="F60" s="3">
-        <v>683400</v>
+        <v>651400</v>
       </c>
       <c r="G60" s="3">
-        <v>255500</v>
+        <v>243500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>870500</v>
+        <v>829800</v>
       </c>
       <c r="E61" s="3">
-        <v>128300</v>
+        <v>122300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>146800</v>
+        <v>139900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>396500</v>
+        <v>378000</v>
       </c>
       <c r="E62" s="3">
-        <v>201800</v>
+        <v>192400</v>
       </c>
       <c r="F62" s="3">
-        <v>36900</v>
+        <v>35200</v>
       </c>
       <c r="G62" s="3">
-        <v>32600</v>
+        <v>31100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3035200</v>
+        <v>2893200</v>
       </c>
       <c r="E66" s="3">
-        <v>959400</v>
+        <v>914500</v>
       </c>
       <c r="F66" s="3">
-        <v>720300</v>
+        <v>686600</v>
       </c>
       <c r="G66" s="3">
-        <v>434800</v>
+        <v>414500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1497600</v>
+        <v>1427600</v>
       </c>
       <c r="G70" s="3">
-        <v>774000</v>
+        <v>737800</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-993800</v>
+        <v>-947300</v>
       </c>
       <c r="E72" s="3">
-        <v>-946600</v>
+        <v>-902300</v>
       </c>
       <c r="F72" s="3">
-        <v>-830900</v>
+        <v>-792100</v>
       </c>
       <c r="G72" s="3">
-        <v>-351700</v>
+        <v>-335300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5996600</v>
+        <v>5716200</v>
       </c>
       <c r="E76" s="3">
-        <v>4352200</v>
+        <v>4148700</v>
       </c>
       <c r="F76" s="3">
-        <v>-828600</v>
+        <v>-789900</v>
       </c>
       <c r="G76" s="3">
-        <v>-364600</v>
+        <v>-347600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46900</v>
+        <v>-44700</v>
       </c>
       <c r="E81" s="3">
-        <v>-115700</v>
+        <v>-110200</v>
       </c>
       <c r="F81" s="3">
-        <v>-479200</v>
+        <v>-456800</v>
       </c>
       <c r="G81" s="3">
-        <v>-270100</v>
+        <v>-257500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>86200</v>
+        <v>82200</v>
       </c>
       <c r="E83" s="3">
-        <v>46900</v>
+        <v>44700</v>
       </c>
       <c r="F83" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="G83" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1217900</v>
+        <v>1161000</v>
       </c>
       <c r="E89" s="3">
-        <v>458500</v>
+        <v>437100</v>
       </c>
       <c r="F89" s="3">
-        <v>-261900</v>
+        <v>-249700</v>
       </c>
       <c r="G89" s="3">
-        <v>-196700</v>
+        <v>-187500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-503000</v>
+        <v>-479500</v>
       </c>
       <c r="E91" s="3">
-        <v>-98600</v>
+        <v>-94000</v>
       </c>
       <c r="F91" s="3">
-        <v>-139200</v>
+        <v>-132600</v>
       </c>
       <c r="G91" s="3">
-        <v>-141800</v>
+        <v>-135100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-621700</v>
+        <v>-592600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2736300</v>
+        <v>-2608300</v>
       </c>
       <c r="F94" s="3">
-        <v>-376000</v>
+        <v>-358400</v>
       </c>
       <c r="G94" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2440100</v>
+        <v>2326000</v>
       </c>
       <c r="E100" s="3">
-        <v>3608500</v>
+        <v>3439700</v>
       </c>
       <c r="F100" s="3">
-        <v>825900</v>
+        <v>787300</v>
       </c>
       <c r="G100" s="3">
-        <v>161900</v>
+        <v>154300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-68900</v>
+        <v>-65700</v>
       </c>
       <c r="E101" s="3">
-        <v>-55000</v>
+        <v>-52400</v>
       </c>
       <c r="F101" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="G101" s="3">
         <v>500</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2967400</v>
+        <v>2828600</v>
       </c>
       <c r="E102" s="3">
-        <v>1275700</v>
+        <v>1216100</v>
       </c>
       <c r="F102" s="3">
-        <v>195800</v>
+        <v>186600</v>
       </c>
       <c r="G102" s="3">
-        <v>-62300</v>
+        <v>-59300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>LI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3759800</v>
+        <v>6504100</v>
       </c>
       <c r="E8" s="3">
-        <v>1316400</v>
+        <v>3879100</v>
       </c>
       <c r="F8" s="3">
-        <v>39600</v>
+        <v>1358200</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>40800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,23 +747,26 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2957800</v>
+        <v>5241600</v>
       </c>
       <c r="E9" s="3">
-        <v>1100700</v>
+        <v>3051700</v>
       </c>
       <c r="F9" s="3">
-        <v>39600</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>1135600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>40900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -777,23 +783,26 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>802000</v>
+        <v>1262500</v>
       </c>
       <c r="E10" s="3">
-        <v>215700</v>
+        <v>827500</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>222500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,25 +838,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>449900</v>
+        <v>973700</v>
       </c>
       <c r="E12" s="3">
-        <v>146800</v>
+        <v>464200</v>
       </c>
       <c r="F12" s="3">
-        <v>157200</v>
+        <v>151500</v>
       </c>
       <c r="G12" s="3">
-        <v>107800</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>162200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>111200</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,26 +907,29 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>2600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -924,26 +943,29 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>19100</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>11500</v>
+        <v>19700</v>
       </c>
       <c r="F15" s="3">
-        <v>13500</v>
+        <v>11900</v>
       </c>
       <c r="G15" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8700</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3901400</v>
+        <v>7029000</v>
       </c>
       <c r="E17" s="3">
-        <v>1409500</v>
+        <v>4025300</v>
       </c>
       <c r="F17" s="3">
-        <v>298300</v>
+        <v>1454300</v>
       </c>
       <c r="G17" s="3">
-        <v>157400</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>307800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>162400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-141600</v>
+        <v>-524900</v>
       </c>
       <c r="E18" s="3">
-        <v>-93200</v>
+        <v>-146100</v>
       </c>
       <c r="F18" s="3">
-        <v>-258700</v>
+        <v>-96100</v>
       </c>
       <c r="G18" s="3">
-        <v>-157400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-266900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-162400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,25 +1083,26 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>129100</v>
+        <v>230100</v>
       </c>
       <c r="E20" s="3">
-        <v>76200</v>
+        <v>133200</v>
       </c>
       <c r="F20" s="3">
-        <v>-66200</v>
+        <v>78600</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>-68300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4200</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>69100</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>27400</v>
+        <v>72100</v>
       </c>
       <c r="F21" s="3">
-        <v>-308800</v>
+        <v>28700</v>
       </c>
       <c r="G21" s="3">
-        <v>-145000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-318500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-149500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,26 +1152,29 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8800</v>
+        <v>15300</v>
       </c>
       <c r="E22" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="F22" s="3">
-        <v>11600</v>
+        <v>9600</v>
       </c>
       <c r="G22" s="3">
-        <v>8800</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>12000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>9100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1149,26 +1188,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-21300</v>
+        <v>-310100</v>
       </c>
       <c r="E23" s="3">
-        <v>-26300</v>
+        <v>-21900</v>
       </c>
       <c r="F23" s="3">
-        <v>-336600</v>
+        <v>-27100</v>
       </c>
       <c r="G23" s="3">
-        <v>-162200</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-347300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-167400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,26 +1224,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23500</v>
+        <v>-18200</v>
       </c>
       <c r="E24" s="3">
-        <v>-3200</v>
+        <v>24200</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1212,12 +1257,15 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-44700</v>
+        <v>-291900</v>
       </c>
       <c r="E26" s="3">
-        <v>-23100</v>
+        <v>-46200</v>
       </c>
       <c r="F26" s="3">
-        <v>-336600</v>
+        <v>-23800</v>
       </c>
       <c r="G26" s="3">
-        <v>-162200</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-347300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-167400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-44700</v>
+        <v>-289000</v>
       </c>
       <c r="E27" s="3">
-        <v>-112200</v>
+        <v>-46200</v>
       </c>
       <c r="F27" s="3">
-        <v>-453900</v>
+        <v>-115800</v>
       </c>
       <c r="G27" s="3">
-        <v>-206400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-468300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-212900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,26 +1404,29 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-2900</v>
+        <v>2100</v>
       </c>
       <c r="G29" s="3">
-        <v>-51100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+        <v>-3000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-52700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,26 +1512,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-129100</v>
+        <v>-230100</v>
       </c>
       <c r="E32" s="3">
-        <v>-76200</v>
+        <v>-133200</v>
       </c>
       <c r="F32" s="3">
-        <v>66200</v>
+        <v>-78600</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>68300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-44700</v>
+        <v>-289000</v>
       </c>
       <c r="E33" s="3">
-        <v>-110200</v>
+        <v>-46200</v>
       </c>
       <c r="F33" s="3">
-        <v>-456800</v>
+        <v>-113700</v>
       </c>
       <c r="G33" s="3">
-        <v>-257500</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-471300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-265600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-44700</v>
+        <v>-289000</v>
       </c>
       <c r="E35" s="3">
-        <v>-110200</v>
+        <v>-46200</v>
       </c>
       <c r="F35" s="3">
-        <v>-456800</v>
+        <v>-113700</v>
       </c>
       <c r="G35" s="3">
-        <v>-257500</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-471300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-265600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3877300</v>
+        <v>5526200</v>
       </c>
       <c r="E41" s="3">
-        <v>1244200</v>
+        <v>4000400</v>
       </c>
       <c r="F41" s="3">
-        <v>180400</v>
+        <v>1283700</v>
       </c>
       <c r="G41" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>186200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>10100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2737800</v>
+        <v>2589700</v>
       </c>
       <c r="E42" s="3">
-        <v>2742400</v>
+        <v>2824800</v>
       </c>
       <c r="F42" s="3">
-        <v>316400</v>
+        <v>2829500</v>
       </c>
       <c r="G42" s="3">
-        <v>119700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>326400</v>
+      </c>
+      <c r="H42" s="3">
+        <v>123500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>36900</v>
+        <v>6900</v>
       </c>
       <c r="E43" s="3">
-        <v>44500</v>
+        <v>38100</v>
       </c>
       <c r="F43" s="3">
-        <v>71200</v>
+        <v>45900</v>
       </c>
       <c r="G43" s="3">
-        <v>177200</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>73500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>182800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,26 +1837,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>225200</v>
+        <v>977300</v>
       </c>
       <c r="E44" s="3">
-        <v>145900</v>
+        <v>232400</v>
       </c>
       <c r="F44" s="3">
-        <v>72100</v>
+        <v>150500</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>74400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>414100</v>
+        <v>521300</v>
       </c>
       <c r="E45" s="3">
-        <v>192600</v>
+        <v>427300</v>
       </c>
       <c r="F45" s="3">
-        <v>65100</v>
+        <v>198700</v>
       </c>
       <c r="G45" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>67100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>13100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7291400</v>
+        <v>9621500</v>
       </c>
       <c r="E46" s="3">
-        <v>4369600</v>
+        <v>7522900</v>
       </c>
       <c r="F46" s="3">
-        <v>705200</v>
+        <v>4508400</v>
       </c>
       <c r="G46" s="3">
-        <v>319400</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>727600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>329500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,26 +1945,29 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21200</v>
+        <v>213200</v>
       </c>
       <c r="E47" s="3">
-        <v>22700</v>
+        <v>21900</v>
       </c>
       <c r="F47" s="3">
-        <v>17600</v>
+        <v>23400</v>
       </c>
       <c r="G47" s="3">
-        <v>24700</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>18100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>25400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>913100</v>
+        <v>2115100</v>
       </c>
       <c r="E48" s="3">
-        <v>522800</v>
+        <v>942100</v>
       </c>
       <c r="F48" s="3">
-        <v>460100</v>
+        <v>539400</v>
       </c>
       <c r="G48" s="3">
-        <v>280200</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>474700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>289100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,26 +2017,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>104600</v>
+        <v>120400</v>
       </c>
       <c r="E49" s="3">
-        <v>95100</v>
+        <v>107900</v>
       </c>
       <c r="F49" s="3">
-        <v>93800</v>
+        <v>98100</v>
       </c>
       <c r="G49" s="3">
-        <v>93500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>96800</v>
+      </c>
+      <c r="H49" s="3">
+        <v>96400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,26 +2125,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>279100</v>
+        <v>358500</v>
       </c>
       <c r="E52" s="3">
-        <v>52900</v>
+        <v>287900</v>
       </c>
       <c r="F52" s="3">
-        <v>47600</v>
+        <v>54600</v>
       </c>
       <c r="G52" s="3">
-        <v>87000</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>49100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>89700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8609400</v>
+        <v>12428600</v>
       </c>
       <c r="E54" s="3">
-        <v>5063200</v>
+        <v>8882700</v>
       </c>
       <c r="F54" s="3">
-        <v>1324300</v>
+        <v>5223900</v>
       </c>
       <c r="G54" s="3">
-        <v>804700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1366300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>830300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>986800</v>
+        <v>3692300</v>
       </c>
       <c r="E57" s="3">
-        <v>416400</v>
+        <v>1018200</v>
       </c>
       <c r="F57" s="3">
-        <v>87000</v>
+        <v>429600</v>
       </c>
       <c r="G57" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>89700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>323500</v>
+        <v>56100</v>
       </c>
       <c r="E58" s="3">
-        <v>23500</v>
+        <v>333700</v>
       </c>
       <c r="F58" s="3">
-        <v>179900</v>
+        <v>24300</v>
       </c>
       <c r="G58" s="3">
-        <v>55800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>185600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>57600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>375200</v>
+        <v>182800</v>
       </c>
       <c r="E59" s="3">
-        <v>159900</v>
+        <v>387100</v>
       </c>
       <c r="F59" s="3">
-        <v>384600</v>
+        <v>165000</v>
       </c>
       <c r="G59" s="3">
-        <v>184600</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>396800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>190500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1685500</v>
+        <v>3931300</v>
       </c>
       <c r="E60" s="3">
-        <v>599800</v>
+        <v>1739000</v>
       </c>
       <c r="F60" s="3">
-        <v>651400</v>
+        <v>618900</v>
       </c>
       <c r="G60" s="3">
-        <v>243500</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>672100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>251200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,26 +2409,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>829800</v>
+        <v>1325700</v>
       </c>
       <c r="E61" s="3">
-        <v>122300</v>
+        <v>856100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>126200</v>
       </c>
       <c r="G61" s="3">
-        <v>139900</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>144300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>378000</v>
+        <v>681900</v>
       </c>
       <c r="E62" s="3">
-        <v>192400</v>
+        <v>390000</v>
       </c>
       <c r="F62" s="3">
-        <v>35200</v>
+        <v>198500</v>
       </c>
       <c r="G62" s="3">
-        <v>31100</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>36300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>32100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2893200</v>
+        <v>5986000</v>
       </c>
       <c r="E66" s="3">
-        <v>914500</v>
+        <v>2985100</v>
       </c>
       <c r="F66" s="3">
-        <v>686600</v>
+        <v>943500</v>
       </c>
       <c r="G66" s="3">
-        <v>414500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>708400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>427700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1427600</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>737800</v>
+        <v>1472900</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>761200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-947300</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-902300</v>
+        <v>-977400</v>
       </c>
       <c r="F72" s="3">
-        <v>-792100</v>
+        <v>-931000</v>
       </c>
       <c r="G72" s="3">
-        <v>-335300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-817200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-345900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5716200</v>
+        <v>6442600</v>
       </c>
       <c r="E76" s="3">
-        <v>4148700</v>
+        <v>5897700</v>
       </c>
       <c r="F76" s="3">
-        <v>-789900</v>
+        <v>4280400</v>
       </c>
       <c r="G76" s="3">
-        <v>-347600</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-815000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-358600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-44700</v>
+        <v>-289000</v>
       </c>
       <c r="E81" s="3">
-        <v>-110200</v>
+        <v>-46200</v>
       </c>
       <c r="F81" s="3">
-        <v>-456800</v>
+        <v>-113700</v>
       </c>
       <c r="G81" s="3">
-        <v>-257500</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-471300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-265600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,25 +3097,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>82200</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>44700</v>
+        <v>84800</v>
       </c>
       <c r="F83" s="3">
-        <v>16200</v>
+        <v>46100</v>
       </c>
       <c r="G83" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>16700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>8700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1161000</v>
+        <v>1060000</v>
       </c>
       <c r="E89" s="3">
-        <v>437100</v>
+        <v>1197800</v>
       </c>
       <c r="F89" s="3">
-        <v>-249700</v>
+        <v>450900</v>
       </c>
       <c r="G89" s="3">
-        <v>-187500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-257600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-193400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,25 +3365,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-479500</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-94000</v>
+        <v>-494700</v>
       </c>
       <c r="F91" s="3">
-        <v>-132600</v>
+        <v>-97000</v>
       </c>
       <c r="G91" s="3">
-        <v>-135100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-136900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-139400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-592600</v>
+        <v>-626900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2608300</v>
+        <v>-611400</v>
       </c>
       <c r="F94" s="3">
-        <v>-358400</v>
+        <v>-2691100</v>
       </c>
       <c r="G94" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-369800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-27500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2326000</v>
+        <v>809900</v>
       </c>
       <c r="E100" s="3">
-        <v>3439700</v>
+        <v>2399800</v>
       </c>
       <c r="F100" s="3">
-        <v>787300</v>
+        <v>3549000</v>
       </c>
       <c r="G100" s="3">
-        <v>154300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>812300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>159200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,27 +3702,30 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-65700</v>
+        <v>182400</v>
       </c>
       <c r="E101" s="3">
-        <v>-52400</v>
+        <v>-67800</v>
       </c>
       <c r="F101" s="3">
-        <v>7500</v>
+        <v>-54100</v>
       </c>
       <c r="G101" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2828600</v>
+        <v>1425400</v>
       </c>
       <c r="E102" s="3">
-        <v>1216100</v>
+        <v>2918400</v>
       </c>
       <c r="F102" s="3">
-        <v>186600</v>
+        <v>1254700</v>
       </c>
       <c r="G102" s="3">
-        <v>-59300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>192600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-61200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>LI</t>
   </si>
@@ -721,16 +721,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6504100</v>
+        <v>6437500</v>
       </c>
       <c r="E8" s="3">
-        <v>3879100</v>
+        <v>3839400</v>
       </c>
       <c r="F8" s="3">
-        <v>1358200</v>
+        <v>1344300</v>
       </c>
       <c r="G8" s="3">
-        <v>40800</v>
+        <v>40400</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5241600</v>
+        <v>5188000</v>
       </c>
       <c r="E9" s="3">
-        <v>3051700</v>
+        <v>3020400</v>
       </c>
       <c r="F9" s="3">
-        <v>1135600</v>
+        <v>1124000</v>
       </c>
       <c r="G9" s="3">
-        <v>40900</v>
+        <v>40400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -793,13 +793,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1262500</v>
+        <v>1249600</v>
       </c>
       <c r="E10" s="3">
-        <v>827500</v>
+        <v>819000</v>
       </c>
       <c r="F10" s="3">
-        <v>222500</v>
+        <v>220200</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>973700</v>
+        <v>950400</v>
       </c>
       <c r="E12" s="3">
-        <v>464200</v>
+        <v>459500</v>
       </c>
       <c r="F12" s="3">
-        <v>151500</v>
+        <v>150000</v>
       </c>
       <c r="G12" s="3">
-        <v>162200</v>
+        <v>160600</v>
       </c>
       <c r="H12" s="3">
-        <v>111200</v>
+        <v>110100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -916,14 +916,14 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>1000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G14" s="3">
         <v>2600</v>
@@ -952,20 +952,20 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>45900</v>
       </c>
       <c r="E15" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="F15" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="G15" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="H15" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7029000</v>
+        <v>6958100</v>
       </c>
       <c r="E17" s="3">
-        <v>4025300</v>
+        <v>3984100</v>
       </c>
       <c r="F17" s="3">
-        <v>1454300</v>
+        <v>1439400</v>
       </c>
       <c r="G17" s="3">
-        <v>307800</v>
+        <v>304600</v>
       </c>
       <c r="H17" s="3">
-        <v>162400</v>
+        <v>160800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-524900</v>
+        <v>-520600</v>
       </c>
       <c r="E18" s="3">
-        <v>-146100</v>
+        <v>-144600</v>
       </c>
       <c r="F18" s="3">
-        <v>-96100</v>
+        <v>-95100</v>
       </c>
       <c r="G18" s="3">
-        <v>-266900</v>
+        <v>-264200</v>
       </c>
       <c r="H18" s="3">
-        <v>-162400</v>
+        <v>-160800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>230100</v>
+        <v>228700</v>
       </c>
       <c r="E20" s="3">
-        <v>133200</v>
+        <v>131900</v>
       </c>
       <c r="F20" s="3">
-        <v>78600</v>
+        <v>77800</v>
       </c>
       <c r="G20" s="3">
-        <v>-68300</v>
+        <v>-67600</v>
       </c>
       <c r="H20" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1125,20 +1125,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-118400</v>
       </c>
       <c r="E21" s="3">
-        <v>72100</v>
+        <v>71600</v>
       </c>
       <c r="F21" s="3">
-        <v>28700</v>
+        <v>28500</v>
       </c>
       <c r="G21" s="3">
-        <v>-318500</v>
+        <v>-315200</v>
       </c>
       <c r="H21" s="3">
-        <v>-149500</v>
+        <v>-148000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,19 +1162,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="E22" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F22" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="G22" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="H22" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-310100</v>
+        <v>-307000</v>
       </c>
       <c r="E23" s="3">
-        <v>-21900</v>
+        <v>-21700</v>
       </c>
       <c r="F23" s="3">
-        <v>-27100</v>
+        <v>-26800</v>
       </c>
       <c r="G23" s="3">
-        <v>-347300</v>
+        <v>-343700</v>
       </c>
       <c r="H23" s="3">
-        <v>-167400</v>
+        <v>-165600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-18200</v>
+        <v>-18100</v>
       </c>
       <c r="E24" s="3">
-        <v>24200</v>
+        <v>24000</v>
       </c>
       <c r="F24" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-291900</v>
+        <v>-288900</v>
       </c>
       <c r="E26" s="3">
-        <v>-46200</v>
+        <v>-45700</v>
       </c>
       <c r="F26" s="3">
-        <v>-23800</v>
+        <v>-23600</v>
       </c>
       <c r="G26" s="3">
-        <v>-347300</v>
+        <v>-343700</v>
       </c>
       <c r="H26" s="3">
-        <v>-167400</v>
+        <v>-165600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-289000</v>
+        <v>-286000</v>
       </c>
       <c r="E27" s="3">
-        <v>-46200</v>
+        <v>-45700</v>
       </c>
       <c r="F27" s="3">
-        <v>-115800</v>
+        <v>-114600</v>
       </c>
       <c r="G27" s="3">
-        <v>-468300</v>
+        <v>-463500</v>
       </c>
       <c r="H27" s="3">
-        <v>-212900</v>
+        <v>-210800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G29" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H29" s="3">
-        <v>-52700</v>
+        <v>-52200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-230100</v>
+        <v>-228700</v>
       </c>
       <c r="E32" s="3">
-        <v>-133200</v>
+        <v>-131900</v>
       </c>
       <c r="F32" s="3">
-        <v>-78600</v>
+        <v>-77800</v>
       </c>
       <c r="G32" s="3">
-        <v>68300</v>
+        <v>67600</v>
       </c>
       <c r="H32" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-289000</v>
+        <v>-286000</v>
       </c>
       <c r="E33" s="3">
-        <v>-46200</v>
+        <v>-45700</v>
       </c>
       <c r="F33" s="3">
-        <v>-113700</v>
+        <v>-112600</v>
       </c>
       <c r="G33" s="3">
-        <v>-471300</v>
+        <v>-466500</v>
       </c>
       <c r="H33" s="3">
-        <v>-265600</v>
+        <v>-262900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-289000</v>
+        <v>-286000</v>
       </c>
       <c r="E35" s="3">
-        <v>-46200</v>
+        <v>-45700</v>
       </c>
       <c r="F35" s="3">
-        <v>-113700</v>
+        <v>-112600</v>
       </c>
       <c r="G35" s="3">
-        <v>-471300</v>
+        <v>-466500</v>
       </c>
       <c r="H35" s="3">
-        <v>-265600</v>
+        <v>-262900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5526200</v>
+        <v>5469600</v>
       </c>
       <c r="E41" s="3">
-        <v>4000400</v>
+        <v>3959500</v>
       </c>
       <c r="F41" s="3">
-        <v>1283700</v>
+        <v>1270600</v>
       </c>
       <c r="G41" s="3">
-        <v>186200</v>
+        <v>184300</v>
       </c>
       <c r="H41" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2589700</v>
+        <v>2563200</v>
       </c>
       <c r="E42" s="3">
-        <v>2824800</v>
+        <v>2795800</v>
       </c>
       <c r="F42" s="3">
-        <v>2829500</v>
+        <v>2800600</v>
       </c>
       <c r="G42" s="3">
-        <v>326400</v>
+        <v>323100</v>
       </c>
       <c r="H42" s="3">
-        <v>123500</v>
+        <v>122200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1814,16 +1814,16 @@
         <v>6900</v>
       </c>
       <c r="E43" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="F43" s="3">
-        <v>45900</v>
+        <v>45400</v>
       </c>
       <c r="G43" s="3">
-        <v>73500</v>
+        <v>72700</v>
       </c>
       <c r="H43" s="3">
-        <v>182800</v>
+        <v>181000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>977300</v>
+        <v>967300</v>
       </c>
       <c r="E44" s="3">
-        <v>232400</v>
+        <v>230000</v>
       </c>
       <c r="F44" s="3">
-        <v>150500</v>
+        <v>149000</v>
       </c>
       <c r="G44" s="3">
-        <v>74400</v>
+        <v>73600</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>521300</v>
+        <v>516000</v>
       </c>
       <c r="E45" s="3">
-        <v>427300</v>
+        <v>422900</v>
       </c>
       <c r="F45" s="3">
-        <v>198700</v>
+        <v>196700</v>
       </c>
       <c r="G45" s="3">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="H45" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9621500</v>
+        <v>9523000</v>
       </c>
       <c r="E46" s="3">
-        <v>7522900</v>
+        <v>7445900</v>
       </c>
       <c r="F46" s="3">
-        <v>4508400</v>
+        <v>4462200</v>
       </c>
       <c r="G46" s="3">
-        <v>727600</v>
+        <v>720100</v>
       </c>
       <c r="H46" s="3">
-        <v>329500</v>
+        <v>326100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>213200</v>
+        <v>210400</v>
       </c>
       <c r="E47" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="F47" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="G47" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="H47" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2115100</v>
+        <v>2093400</v>
       </c>
       <c r="E48" s="3">
-        <v>942100</v>
+        <v>932500</v>
       </c>
       <c r="F48" s="3">
-        <v>539400</v>
+        <v>533900</v>
       </c>
       <c r="G48" s="3">
-        <v>474700</v>
+        <v>469900</v>
       </c>
       <c r="H48" s="3">
-        <v>289100</v>
+        <v>286200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>120400</v>
+        <v>119100</v>
       </c>
       <c r="E49" s="3">
-        <v>107900</v>
+        <v>106800</v>
       </c>
       <c r="F49" s="3">
-        <v>98100</v>
+        <v>97100</v>
       </c>
       <c r="G49" s="3">
-        <v>96800</v>
+        <v>95800</v>
       </c>
       <c r="H49" s="3">
-        <v>96400</v>
+        <v>95400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>358500</v>
+        <v>355500</v>
       </c>
       <c r="E52" s="3">
-        <v>287900</v>
+        <v>285000</v>
       </c>
       <c r="F52" s="3">
-        <v>54600</v>
+        <v>54100</v>
       </c>
       <c r="G52" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="H52" s="3">
-        <v>89700</v>
+        <v>88800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12428600</v>
+        <v>12301400</v>
       </c>
       <c r="E54" s="3">
-        <v>8882700</v>
+        <v>8791800</v>
       </c>
       <c r="F54" s="3">
-        <v>5223900</v>
+        <v>5170500</v>
       </c>
       <c r="G54" s="3">
-        <v>1366300</v>
+        <v>1352300</v>
       </c>
       <c r="H54" s="3">
-        <v>830300</v>
+        <v>821800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,16 +2275,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3692300</v>
+        <v>2190600</v>
       </c>
       <c r="E57" s="3">
-        <v>1018200</v>
+        <v>1007800</v>
       </c>
       <c r="F57" s="3">
-        <v>429600</v>
+        <v>425200</v>
       </c>
       <c r="G57" s="3">
-        <v>89700</v>
+        <v>88800</v>
       </c>
       <c r="H57" s="3">
         <v>3200</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>56100</v>
+        <v>711500</v>
       </c>
       <c r="E58" s="3">
-        <v>333700</v>
+        <v>330300</v>
       </c>
       <c r="F58" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="G58" s="3">
-        <v>185600</v>
+        <v>183700</v>
       </c>
       <c r="H58" s="3">
-        <v>57600</v>
+        <v>57000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>182800</v>
+        <v>989000</v>
       </c>
       <c r="E59" s="3">
-        <v>387100</v>
+        <v>383100</v>
       </c>
       <c r="F59" s="3">
-        <v>165000</v>
+        <v>163300</v>
       </c>
       <c r="G59" s="3">
-        <v>396800</v>
+        <v>392700</v>
       </c>
       <c r="H59" s="3">
-        <v>190500</v>
+        <v>188500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3931300</v>
+        <v>3891000</v>
       </c>
       <c r="E60" s="3">
-        <v>1739000</v>
+        <v>1721200</v>
       </c>
       <c r="F60" s="3">
-        <v>618900</v>
+        <v>612600</v>
       </c>
       <c r="G60" s="3">
-        <v>672100</v>
+        <v>665200</v>
       </c>
       <c r="H60" s="3">
-        <v>251200</v>
+        <v>248700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1325700</v>
+        <v>1312200</v>
       </c>
       <c r="E61" s="3">
-        <v>856100</v>
+        <v>847300</v>
       </c>
       <c r="F61" s="3">
-        <v>126200</v>
+        <v>124900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>144300</v>
+        <v>142900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>681900</v>
+        <v>675000</v>
       </c>
       <c r="E62" s="3">
-        <v>390000</v>
+        <v>386000</v>
       </c>
       <c r="F62" s="3">
-        <v>198500</v>
+        <v>196400</v>
       </c>
       <c r="G62" s="3">
-        <v>36300</v>
+        <v>35900</v>
       </c>
       <c r="H62" s="3">
-        <v>32100</v>
+        <v>31700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5986000</v>
+        <v>5924700</v>
       </c>
       <c r="E66" s="3">
-        <v>2985100</v>
+        <v>2954500</v>
       </c>
       <c r="F66" s="3">
-        <v>943500</v>
+        <v>933900</v>
       </c>
       <c r="G66" s="3">
-        <v>708400</v>
+        <v>701100</v>
       </c>
       <c r="H66" s="3">
-        <v>427700</v>
+        <v>423300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1472900</v>
+        <v>1457800</v>
       </c>
       <c r="H70" s="3">
-        <v>761200</v>
+        <v>753400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2794,20 +2794,20 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-1253500</v>
       </c>
       <c r="E72" s="3">
-        <v>-977400</v>
+        <v>-967400</v>
       </c>
       <c r="F72" s="3">
-        <v>-931000</v>
+        <v>-921400</v>
       </c>
       <c r="G72" s="3">
-        <v>-817200</v>
+        <v>-808900</v>
       </c>
       <c r="H72" s="3">
-        <v>-345900</v>
+        <v>-342400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6442600</v>
+        <v>6376700</v>
       </c>
       <c r="E76" s="3">
-        <v>5897700</v>
+        <v>5837300</v>
       </c>
       <c r="F76" s="3">
-        <v>4280400</v>
+        <v>4236600</v>
       </c>
       <c r="G76" s="3">
-        <v>-815000</v>
+        <v>-806600</v>
       </c>
       <c r="H76" s="3">
-        <v>-358600</v>
+        <v>-354900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-289000</v>
+        <v>-286000</v>
       </c>
       <c r="E81" s="3">
-        <v>-46200</v>
+        <v>-45700</v>
       </c>
       <c r="F81" s="3">
-        <v>-113700</v>
+        <v>-112600</v>
       </c>
       <c r="G81" s="3">
-        <v>-471300</v>
+        <v>-466500</v>
       </c>
       <c r="H81" s="3">
-        <v>-265600</v>
+        <v>-262900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3103,20 +3103,20 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>172500</v>
       </c>
       <c r="E83" s="3">
-        <v>84800</v>
+        <v>83900</v>
       </c>
       <c r="F83" s="3">
-        <v>46100</v>
+        <v>45600</v>
       </c>
       <c r="G83" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="H83" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1060000</v>
+        <v>1049100</v>
       </c>
       <c r="E89" s="3">
-        <v>1197800</v>
+        <v>1185600</v>
       </c>
       <c r="F89" s="3">
-        <v>450900</v>
+        <v>446300</v>
       </c>
       <c r="G89" s="3">
-        <v>-257600</v>
+        <v>-255000</v>
       </c>
       <c r="H89" s="3">
-        <v>-193400</v>
+        <v>-191400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3371,20 +3371,20 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-728900</v>
       </c>
       <c r="E91" s="3">
-        <v>-494700</v>
+        <v>-489600</v>
       </c>
       <c r="F91" s="3">
-        <v>-97000</v>
+        <v>-96000</v>
       </c>
       <c r="G91" s="3">
-        <v>-136900</v>
+        <v>-135500</v>
       </c>
       <c r="H91" s="3">
-        <v>-139400</v>
+        <v>-138000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-626900</v>
+        <v>-620400</v>
       </c>
       <c r="E94" s="3">
-        <v>-611400</v>
+        <v>-605200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2691100</v>
+        <v>-2663600</v>
       </c>
       <c r="G94" s="3">
-        <v>-369800</v>
+        <v>-366000</v>
       </c>
       <c r="H94" s="3">
-        <v>-27500</v>
+        <v>-27200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>809900</v>
+        <v>801600</v>
       </c>
       <c r="E100" s="3">
-        <v>2399800</v>
+        <v>2375300</v>
       </c>
       <c r="F100" s="3">
-        <v>3549000</v>
+        <v>3512600</v>
       </c>
       <c r="G100" s="3">
-        <v>812300</v>
+        <v>804000</v>
       </c>
       <c r="H100" s="3">
-        <v>159200</v>
+        <v>157600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>182400</v>
+        <v>180500</v>
       </c>
       <c r="E101" s="3">
-        <v>-67800</v>
+        <v>-67100</v>
       </c>
       <c r="F101" s="3">
-        <v>-54100</v>
+        <v>-53500</v>
       </c>
       <c r="G101" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H101" s="3">
         <v>500</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1425400</v>
+        <v>1410900</v>
       </c>
       <c r="E102" s="3">
-        <v>2918400</v>
+        <v>2888600</v>
       </c>
       <c r="F102" s="3">
-        <v>1254700</v>
+        <v>1241800</v>
       </c>
       <c r="G102" s="3">
-        <v>192600</v>
+        <v>190600</v>
       </c>
       <c r="H102" s="3">
-        <v>-61200</v>
+        <v>-60600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -721,16 +721,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6437500</v>
+        <v>6239600</v>
       </c>
       <c r="E8" s="3">
-        <v>3839400</v>
+        <v>3721400</v>
       </c>
       <c r="F8" s="3">
-        <v>1344300</v>
+        <v>1302900</v>
       </c>
       <c r="G8" s="3">
-        <v>40400</v>
+        <v>39200</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5188000</v>
+        <v>5028500</v>
       </c>
       <c r="E9" s="3">
-        <v>3020400</v>
+        <v>2927600</v>
       </c>
       <c r="F9" s="3">
-        <v>1124000</v>
+        <v>1089500</v>
       </c>
       <c r="G9" s="3">
-        <v>40400</v>
+        <v>39200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -793,13 +793,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1249600</v>
+        <v>1211100</v>
       </c>
       <c r="E10" s="3">
-        <v>819000</v>
+        <v>793800</v>
       </c>
       <c r="F10" s="3">
-        <v>220200</v>
+        <v>213500</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>950400</v>
+        <v>921200</v>
       </c>
       <c r="E12" s="3">
-        <v>459500</v>
+        <v>445300</v>
       </c>
       <c r="F12" s="3">
-        <v>150000</v>
+        <v>145300</v>
       </c>
       <c r="G12" s="3">
-        <v>160600</v>
+        <v>155600</v>
       </c>
       <c r="H12" s="3">
-        <v>110100</v>
+        <v>106700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G14" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="E15" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="F15" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="G15" s="3">
-        <v>13800</v>
+        <v>13400</v>
       </c>
       <c r="H15" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6958100</v>
+        <v>6744200</v>
       </c>
       <c r="E17" s="3">
-        <v>3984100</v>
+        <v>3861600</v>
       </c>
       <c r="F17" s="3">
-        <v>1439400</v>
+        <v>1395200</v>
       </c>
       <c r="G17" s="3">
-        <v>304600</v>
+        <v>295300</v>
       </c>
       <c r="H17" s="3">
-        <v>160800</v>
+        <v>155800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-520600</v>
+        <v>-504600</v>
       </c>
       <c r="E18" s="3">
-        <v>-144600</v>
+        <v>-140200</v>
       </c>
       <c r="F18" s="3">
-        <v>-95100</v>
+        <v>-92200</v>
       </c>
       <c r="G18" s="3">
-        <v>-264200</v>
+        <v>-256100</v>
       </c>
       <c r="H18" s="3">
-        <v>-160800</v>
+        <v>-155800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>228700</v>
+        <v>221700</v>
       </c>
       <c r="E20" s="3">
-        <v>131900</v>
+        <v>127800</v>
       </c>
       <c r="F20" s="3">
-        <v>77800</v>
+        <v>75400</v>
       </c>
       <c r="G20" s="3">
-        <v>-67600</v>
+        <v>-65500</v>
       </c>
       <c r="H20" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-118400</v>
+        <v>-115600</v>
       </c>
       <c r="E21" s="3">
-        <v>71600</v>
+        <v>69000</v>
       </c>
       <c r="F21" s="3">
-        <v>28500</v>
+        <v>27400</v>
       </c>
       <c r="G21" s="3">
-        <v>-315200</v>
+        <v>-305600</v>
       </c>
       <c r="H21" s="3">
-        <v>-148000</v>
+        <v>-143500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,19 +1162,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15100</v>
+        <v>14700</v>
       </c>
       <c r="E22" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="F22" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="G22" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="H22" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-307000</v>
+        <v>-297500</v>
       </c>
       <c r="E23" s="3">
-        <v>-21700</v>
+        <v>-21100</v>
       </c>
       <c r="F23" s="3">
-        <v>-26800</v>
+        <v>-26000</v>
       </c>
       <c r="G23" s="3">
-        <v>-343700</v>
+        <v>-333100</v>
       </c>
       <c r="H23" s="3">
-        <v>-165600</v>
+        <v>-160600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-18100</v>
+        <v>-17500</v>
       </c>
       <c r="E24" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="F24" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-288900</v>
+        <v>-280000</v>
       </c>
       <c r="E26" s="3">
-        <v>-45700</v>
+        <v>-44300</v>
       </c>
       <c r="F26" s="3">
-        <v>-23600</v>
+        <v>-22900</v>
       </c>
       <c r="G26" s="3">
-        <v>-343700</v>
+        <v>-333100</v>
       </c>
       <c r="H26" s="3">
-        <v>-165600</v>
+        <v>-160600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-286000</v>
+        <v>-277200</v>
       </c>
       <c r="E27" s="3">
-        <v>-45700</v>
+        <v>-44300</v>
       </c>
       <c r="F27" s="3">
-        <v>-114600</v>
+        <v>-111100</v>
       </c>
       <c r="G27" s="3">
-        <v>-463500</v>
+        <v>-449300</v>
       </c>
       <c r="H27" s="3">
-        <v>-210800</v>
+        <v>-204300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1423,10 +1423,10 @@
         <v>2000</v>
       </c>
       <c r="G29" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="H29" s="3">
-        <v>-52200</v>
+        <v>-50600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-228700</v>
+        <v>-221700</v>
       </c>
       <c r="E32" s="3">
-        <v>-131900</v>
+        <v>-127800</v>
       </c>
       <c r="F32" s="3">
-        <v>-77800</v>
+        <v>-75400</v>
       </c>
       <c r="G32" s="3">
-        <v>67600</v>
+        <v>65500</v>
       </c>
       <c r="H32" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-286000</v>
+        <v>-277200</v>
       </c>
       <c r="E33" s="3">
-        <v>-45700</v>
+        <v>-44300</v>
       </c>
       <c r="F33" s="3">
-        <v>-112600</v>
+        <v>-109100</v>
       </c>
       <c r="G33" s="3">
-        <v>-466500</v>
+        <v>-452100</v>
       </c>
       <c r="H33" s="3">
-        <v>-262900</v>
+        <v>-254800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-286000</v>
+        <v>-277200</v>
       </c>
       <c r="E35" s="3">
-        <v>-45700</v>
+        <v>-44300</v>
       </c>
       <c r="F35" s="3">
-        <v>-112600</v>
+        <v>-109100</v>
       </c>
       <c r="G35" s="3">
-        <v>-466500</v>
+        <v>-452100</v>
       </c>
       <c r="H35" s="3">
-        <v>-262900</v>
+        <v>-254800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5469600</v>
+        <v>5301500</v>
       </c>
       <c r="E41" s="3">
-        <v>3959500</v>
+        <v>3837800</v>
       </c>
       <c r="F41" s="3">
-        <v>1270600</v>
+        <v>1231500</v>
       </c>
       <c r="G41" s="3">
-        <v>184300</v>
+        <v>178600</v>
       </c>
       <c r="H41" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2563200</v>
+        <v>2484400</v>
       </c>
       <c r="E42" s="3">
-        <v>2795800</v>
+        <v>2709900</v>
       </c>
       <c r="F42" s="3">
-        <v>2800600</v>
+        <v>2714500</v>
       </c>
       <c r="G42" s="3">
-        <v>323100</v>
+        <v>313100</v>
       </c>
       <c r="H42" s="3">
-        <v>122200</v>
+        <v>118500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="E43" s="3">
-        <v>37700</v>
+        <v>36500</v>
       </c>
       <c r="F43" s="3">
-        <v>45400</v>
+        <v>44000</v>
       </c>
       <c r="G43" s="3">
-        <v>72700</v>
+        <v>70500</v>
       </c>
       <c r="H43" s="3">
-        <v>181000</v>
+        <v>175400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>967300</v>
+        <v>937600</v>
       </c>
       <c r="E44" s="3">
-        <v>230000</v>
+        <v>222900</v>
       </c>
       <c r="F44" s="3">
-        <v>149000</v>
+        <v>144400</v>
       </c>
       <c r="G44" s="3">
-        <v>73600</v>
+        <v>71400</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>516000</v>
+        <v>500100</v>
       </c>
       <c r="E45" s="3">
-        <v>422900</v>
+        <v>409900</v>
       </c>
       <c r="F45" s="3">
-        <v>196700</v>
+        <v>190700</v>
       </c>
       <c r="G45" s="3">
-        <v>66400</v>
+        <v>64400</v>
       </c>
       <c r="H45" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9523000</v>
+        <v>9230200</v>
       </c>
       <c r="E46" s="3">
-        <v>7445900</v>
+        <v>7217000</v>
       </c>
       <c r="F46" s="3">
-        <v>4462200</v>
+        <v>4325100</v>
       </c>
       <c r="G46" s="3">
-        <v>720100</v>
+        <v>698000</v>
       </c>
       <c r="H46" s="3">
-        <v>326100</v>
+        <v>316100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>210400</v>
+        <v>203900</v>
       </c>
       <c r="E47" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="F47" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="G47" s="3">
-        <v>17900</v>
+        <v>17400</v>
       </c>
       <c r="H47" s="3">
-        <v>25200</v>
+        <v>24400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2093400</v>
+        <v>2029100</v>
       </c>
       <c r="E48" s="3">
-        <v>932500</v>
+        <v>903800</v>
       </c>
       <c r="F48" s="3">
-        <v>533900</v>
+        <v>517500</v>
       </c>
       <c r="G48" s="3">
-        <v>469900</v>
+        <v>455400</v>
       </c>
       <c r="H48" s="3">
-        <v>286200</v>
+        <v>277400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>119100</v>
+        <v>115500</v>
       </c>
       <c r="E49" s="3">
-        <v>106800</v>
+        <v>103500</v>
       </c>
       <c r="F49" s="3">
-        <v>97100</v>
+        <v>94100</v>
       </c>
       <c r="G49" s="3">
-        <v>95800</v>
+        <v>92800</v>
       </c>
       <c r="H49" s="3">
-        <v>95400</v>
+        <v>92500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>355500</v>
+        <v>344500</v>
       </c>
       <c r="E52" s="3">
-        <v>285000</v>
+        <v>276200</v>
       </c>
       <c r="F52" s="3">
-        <v>54100</v>
+        <v>52400</v>
       </c>
       <c r="G52" s="3">
-        <v>48600</v>
+        <v>47100</v>
       </c>
       <c r="H52" s="3">
-        <v>88800</v>
+        <v>86100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12301400</v>
+        <v>11923200</v>
       </c>
       <c r="E54" s="3">
-        <v>8791800</v>
+        <v>8521500</v>
       </c>
       <c r="F54" s="3">
-        <v>5170500</v>
+        <v>5011500</v>
       </c>
       <c r="G54" s="3">
-        <v>1352300</v>
+        <v>1310800</v>
       </c>
       <c r="H54" s="3">
-        <v>821800</v>
+        <v>796500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2190600</v>
+        <v>2123200</v>
       </c>
       <c r="E57" s="3">
-        <v>1007800</v>
+        <v>976800</v>
       </c>
       <c r="F57" s="3">
-        <v>425200</v>
+        <v>412200</v>
       </c>
       <c r="G57" s="3">
-        <v>88800</v>
+        <v>86100</v>
       </c>
       <c r="H57" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>711500</v>
+        <v>689600</v>
       </c>
       <c r="E58" s="3">
-        <v>330300</v>
+        <v>320200</v>
       </c>
       <c r="F58" s="3">
-        <v>24000</v>
+        <v>23300</v>
       </c>
       <c r="G58" s="3">
-        <v>183700</v>
+        <v>178000</v>
       </c>
       <c r="H58" s="3">
-        <v>57000</v>
+        <v>55200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>989000</v>
+        <v>958600</v>
       </c>
       <c r="E59" s="3">
-        <v>383100</v>
+        <v>371300</v>
       </c>
       <c r="F59" s="3">
-        <v>163300</v>
+        <v>158300</v>
       </c>
       <c r="G59" s="3">
-        <v>392700</v>
+        <v>380700</v>
       </c>
       <c r="H59" s="3">
-        <v>188500</v>
+        <v>182700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3891000</v>
+        <v>3771400</v>
       </c>
       <c r="E60" s="3">
-        <v>1721200</v>
+        <v>1668300</v>
       </c>
       <c r="F60" s="3">
-        <v>612600</v>
+        <v>593700</v>
       </c>
       <c r="G60" s="3">
-        <v>665200</v>
+        <v>644800</v>
       </c>
       <c r="H60" s="3">
-        <v>248700</v>
+        <v>241000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1312200</v>
+        <v>1271800</v>
       </c>
       <c r="E61" s="3">
-        <v>847300</v>
+        <v>821300</v>
       </c>
       <c r="F61" s="3">
-        <v>124900</v>
+        <v>121000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>142900</v>
+        <v>138500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>675000</v>
+        <v>654200</v>
       </c>
       <c r="E62" s="3">
-        <v>386000</v>
+        <v>374100</v>
       </c>
       <c r="F62" s="3">
-        <v>196400</v>
+        <v>190400</v>
       </c>
       <c r="G62" s="3">
-        <v>35900</v>
+        <v>34800</v>
       </c>
       <c r="H62" s="3">
-        <v>31700</v>
+        <v>30800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5924700</v>
+        <v>5742600</v>
       </c>
       <c r="E66" s="3">
-        <v>2954500</v>
+        <v>2863700</v>
       </c>
       <c r="F66" s="3">
-        <v>933900</v>
+        <v>905200</v>
       </c>
       <c r="G66" s="3">
-        <v>701100</v>
+        <v>679600</v>
       </c>
       <c r="H66" s="3">
-        <v>423300</v>
+        <v>410300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1457800</v>
+        <v>1413000</v>
       </c>
       <c r="H70" s="3">
-        <v>753400</v>
+        <v>730300</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1253500</v>
+        <v>-1214900</v>
       </c>
       <c r="E72" s="3">
-        <v>-967400</v>
+        <v>-937700</v>
       </c>
       <c r="F72" s="3">
-        <v>-921400</v>
+        <v>-893100</v>
       </c>
       <c r="G72" s="3">
-        <v>-808900</v>
+        <v>-784000</v>
       </c>
       <c r="H72" s="3">
-        <v>-342400</v>
+        <v>-331900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6376700</v>
+        <v>6180600</v>
       </c>
       <c r="E76" s="3">
-        <v>5837300</v>
+        <v>5657800</v>
       </c>
       <c r="F76" s="3">
-        <v>4236600</v>
+        <v>4106300</v>
       </c>
       <c r="G76" s="3">
-        <v>-806600</v>
+        <v>-781800</v>
       </c>
       <c r="H76" s="3">
-        <v>-354900</v>
+        <v>-344100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-286000</v>
+        <v>-277200</v>
       </c>
       <c r="E81" s="3">
-        <v>-45700</v>
+        <v>-44300</v>
       </c>
       <c r="F81" s="3">
-        <v>-112600</v>
+        <v>-109100</v>
       </c>
       <c r="G81" s="3">
-        <v>-466500</v>
+        <v>-452100</v>
       </c>
       <c r="H81" s="3">
-        <v>-262900</v>
+        <v>-254800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>172500</v>
+        <v>167200</v>
       </c>
       <c r="E83" s="3">
-        <v>83900</v>
+        <v>81300</v>
       </c>
       <c r="F83" s="3">
-        <v>45600</v>
+        <v>44200</v>
       </c>
       <c r="G83" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="H83" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1049100</v>
+        <v>1016900</v>
       </c>
       <c r="E89" s="3">
-        <v>1185600</v>
+        <v>1149100</v>
       </c>
       <c r="F89" s="3">
-        <v>446300</v>
+        <v>432600</v>
       </c>
       <c r="G89" s="3">
-        <v>-255000</v>
+        <v>-247100</v>
       </c>
       <c r="H89" s="3">
-        <v>-191400</v>
+        <v>-185600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-728900</v>
+        <v>-706500</v>
       </c>
       <c r="E91" s="3">
-        <v>-489600</v>
+        <v>-474600</v>
       </c>
       <c r="F91" s="3">
-        <v>-96000</v>
+        <v>-93000</v>
       </c>
       <c r="G91" s="3">
-        <v>-135500</v>
+        <v>-131300</v>
       </c>
       <c r="H91" s="3">
-        <v>-138000</v>
+        <v>-133700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-620400</v>
+        <v>-601400</v>
       </c>
       <c r="E94" s="3">
-        <v>-605200</v>
+        <v>-586600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2663600</v>
+        <v>-2581700</v>
       </c>
       <c r="G94" s="3">
-        <v>-366000</v>
+        <v>-354800</v>
       </c>
       <c r="H94" s="3">
-        <v>-27200</v>
+        <v>-26400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>801600</v>
+        <v>777000</v>
       </c>
       <c r="E100" s="3">
-        <v>2375300</v>
+        <v>2302200</v>
       </c>
       <c r="F100" s="3">
-        <v>3512600</v>
+        <v>3404600</v>
       </c>
       <c r="G100" s="3">
-        <v>804000</v>
+        <v>779200</v>
       </c>
       <c r="H100" s="3">
-        <v>157600</v>
+        <v>152800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>180500</v>
+        <v>175000</v>
       </c>
       <c r="E101" s="3">
-        <v>-67100</v>
+        <v>-65000</v>
       </c>
       <c r="F101" s="3">
-        <v>-53500</v>
+        <v>-51900</v>
       </c>
       <c r="G101" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="H101" s="3">
         <v>500</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1410900</v>
+        <v>1367500</v>
       </c>
       <c r="E102" s="3">
-        <v>2888600</v>
+        <v>2799800</v>
       </c>
       <c r="F102" s="3">
-        <v>1241800</v>
+        <v>1203700</v>
       </c>
       <c r="G102" s="3">
-        <v>190600</v>
+        <v>184700</v>
       </c>
       <c r="H102" s="3">
-        <v>-60600</v>
+        <v>-58700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/LI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LI_YR_FIN.xlsx
@@ -721,16 +721,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6239600</v>
+        <v>6253200</v>
       </c>
       <c r="E8" s="3">
-        <v>3721400</v>
+        <v>3729500</v>
       </c>
       <c r="F8" s="3">
-        <v>1302900</v>
+        <v>1305800</v>
       </c>
       <c r="G8" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5028500</v>
+        <v>5039400</v>
       </c>
       <c r="E9" s="3">
-        <v>2927600</v>
+        <v>2934000</v>
       </c>
       <c r="F9" s="3">
-        <v>1089500</v>
+        <v>1091800</v>
       </c>
       <c r="G9" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -793,13 +793,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1211100</v>
+        <v>1213800</v>
       </c>
       <c r="E10" s="3">
-        <v>793800</v>
+        <v>795500</v>
       </c>
       <c r="F10" s="3">
-        <v>213500</v>
+        <v>213900</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>921200</v>
+        <v>923200</v>
       </c>
       <c r="E12" s="3">
-        <v>445300</v>
+        <v>446300</v>
       </c>
       <c r="F12" s="3">
-        <v>145300</v>
+        <v>145700</v>
       </c>
       <c r="G12" s="3">
-        <v>155600</v>
+        <v>156000</v>
       </c>
       <c r="H12" s="3">
-        <v>106700</v>
+        <v>106900</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>44500</v>
+        <v>44600</v>
       </c>
       <c r="E15" s="3">
         <v>18900</v>
@@ -965,7 +965,7 @@
         <v>13400</v>
       </c>
       <c r="H15" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6744200</v>
+        <v>6758900</v>
       </c>
       <c r="E17" s="3">
-        <v>3861600</v>
+        <v>3870000</v>
       </c>
       <c r="F17" s="3">
-        <v>1395200</v>
+        <v>1398200</v>
       </c>
       <c r="G17" s="3">
-        <v>295300</v>
+        <v>295900</v>
       </c>
       <c r="H17" s="3">
-        <v>155800</v>
+        <v>156200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-504600</v>
+        <v>-505700</v>
       </c>
       <c r="E18" s="3">
-        <v>-140200</v>
+        <v>-140500</v>
       </c>
       <c r="F18" s="3">
-        <v>-92200</v>
+        <v>-92400</v>
       </c>
       <c r="G18" s="3">
-        <v>-256100</v>
+        <v>-256600</v>
       </c>
       <c r="H18" s="3">
-        <v>-155800</v>
+        <v>-156200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>221700</v>
+        <v>222200</v>
       </c>
       <c r="E20" s="3">
-        <v>127800</v>
+        <v>128100</v>
       </c>
       <c r="F20" s="3">
-        <v>75400</v>
+        <v>75600</v>
       </c>
       <c r="G20" s="3">
-        <v>-65500</v>
+        <v>-65700</v>
       </c>
       <c r="H20" s="3">
         <v>4000</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-115600</v>
+        <v>-116000</v>
       </c>
       <c r="E21" s="3">
-        <v>69000</v>
+        <v>69100</v>
       </c>
       <c r="F21" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="G21" s="3">
-        <v>-305600</v>
+        <v>-306200</v>
       </c>
       <c r="H21" s="3">
-        <v>-143500</v>
+        <v>-143800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1171,10 +1171,10 @@
         <v>9200</v>
       </c>
       <c r="G22" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="H22" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-297500</v>
+        <v>-298200</v>
       </c>
       <c r="E23" s="3">
         <v>-21100</v>
       </c>
       <c r="F23" s="3">
-        <v>-26000</v>
+        <v>-26100</v>
       </c>
       <c r="G23" s="3">
-        <v>-333100</v>
+        <v>-333900</v>
       </c>
       <c r="H23" s="3">
-        <v>-160600</v>
+        <v>-160900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1237,10 +1237,10 @@
         <v>-17500</v>
       </c>
       <c r="E24" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="F24" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-280000</v>
+        <v>-280600</v>
       </c>
       <c r="E26" s="3">
-        <v>-44300</v>
+        <v>-44400</v>
       </c>
       <c r="F26" s="3">
         <v>-22900</v>
       </c>
       <c r="G26" s="3">
-        <v>-333100</v>
+        <v>-333900</v>
       </c>
       <c r="H26" s="3">
-        <v>-160600</v>
+        <v>-160900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-277200</v>
+        <v>-277800</v>
       </c>
       <c r="E27" s="3">
-        <v>-44300</v>
+        <v>-44400</v>
       </c>
       <c r="F27" s="3">
-        <v>-111100</v>
+        <v>-111300</v>
       </c>
       <c r="G27" s="3">
-        <v>-449300</v>
+        <v>-450300</v>
       </c>
       <c r="H27" s="3">
-        <v>-204300</v>
+        <v>-204700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1423,10 +1423,10 @@
         <v>2000</v>
       </c>
       <c r="G29" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H29" s="3">
-        <v>-50600</v>
+        <v>-50700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-221700</v>
+        <v>-222200</v>
       </c>
       <c r="E32" s="3">
-        <v>-127800</v>
+        <v>-128100</v>
       </c>
       <c r="F32" s="3">
-        <v>-75400</v>
+        <v>-75600</v>
       </c>
       <c r="G32" s="3">
-        <v>65500</v>
+        <v>65700</v>
       </c>
       <c r="H32" s="3">
         <v>-4000</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-277200</v>
+        <v>-277800</v>
       </c>
       <c r="E33" s="3">
-        <v>-44300</v>
+        <v>-44400</v>
       </c>
       <c r="F33" s="3">
-        <v>-109100</v>
+        <v>-109400</v>
       </c>
       <c r="G33" s="3">
-        <v>-452100</v>
+        <v>-453100</v>
       </c>
       <c r="H33" s="3">
-        <v>-254800</v>
+        <v>-255400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-277200</v>
+        <v>-277800</v>
       </c>
       <c r="E35" s="3">
-        <v>-44300</v>
+        <v>-44400</v>
       </c>
       <c r="F35" s="3">
-        <v>-109100</v>
+        <v>-109400</v>
       </c>
       <c r="G35" s="3">
-        <v>-452100</v>
+        <v>-453100</v>
       </c>
       <c r="H35" s="3">
-        <v>-254800</v>
+        <v>-255400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,16 +1739,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5301500</v>
+        <v>5313000</v>
       </c>
       <c r="E41" s="3">
-        <v>3837800</v>
+        <v>3846100</v>
       </c>
       <c r="F41" s="3">
-        <v>1231500</v>
+        <v>1234200</v>
       </c>
       <c r="G41" s="3">
-        <v>178600</v>
+        <v>179000</v>
       </c>
       <c r="H41" s="3">
         <v>9700</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2484400</v>
+        <v>2489800</v>
       </c>
       <c r="E42" s="3">
-        <v>2709900</v>
+        <v>2715800</v>
       </c>
       <c r="F42" s="3">
-        <v>2714500</v>
+        <v>2720400</v>
       </c>
       <c r="G42" s="3">
-        <v>313100</v>
+        <v>313800</v>
       </c>
       <c r="H42" s="3">
-        <v>118500</v>
+        <v>118700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1814,16 +1814,16 @@
         <v>6700</v>
       </c>
       <c r="E43" s="3">
-        <v>36500</v>
+        <v>36600</v>
       </c>
       <c r="F43" s="3">
-        <v>44000</v>
+        <v>44100</v>
       </c>
       <c r="G43" s="3">
-        <v>70500</v>
+        <v>70600</v>
       </c>
       <c r="H43" s="3">
-        <v>175400</v>
+        <v>175800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>937600</v>
+        <v>939600</v>
       </c>
       <c r="E44" s="3">
-        <v>222900</v>
+        <v>223400</v>
       </c>
       <c r="F44" s="3">
-        <v>144400</v>
+        <v>144700</v>
       </c>
       <c r="G44" s="3">
-        <v>71400</v>
+        <v>71500</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500100</v>
+        <v>501200</v>
       </c>
       <c r="E45" s="3">
-        <v>409900</v>
+        <v>410800</v>
       </c>
       <c r="F45" s="3">
-        <v>190700</v>
+        <v>191100</v>
       </c>
       <c r="G45" s="3">
-        <v>64400</v>
+        <v>64500</v>
       </c>
       <c r="H45" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9230200</v>
+        <v>9250300</v>
       </c>
       <c r="E46" s="3">
-        <v>7217000</v>
+        <v>7232700</v>
       </c>
       <c r="F46" s="3">
-        <v>4325100</v>
+        <v>4334500</v>
       </c>
       <c r="G46" s="3">
-        <v>698000</v>
+        <v>699500</v>
       </c>
       <c r="H46" s="3">
-        <v>316100</v>
+        <v>316800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>203900</v>
+        <v>204300</v>
       </c>
       <c r="E47" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="F47" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="G47" s="3">
         <v>17400</v>
       </c>
       <c r="H47" s="3">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2029100</v>
+        <v>2033500</v>
       </c>
       <c r="E48" s="3">
-        <v>903800</v>
+        <v>905800</v>
       </c>
       <c r="F48" s="3">
-        <v>517500</v>
+        <v>518600</v>
       </c>
       <c r="G48" s="3">
-        <v>455400</v>
+        <v>456400</v>
       </c>
       <c r="H48" s="3">
-        <v>277400</v>
+        <v>278000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>115500</v>
+        <v>115700</v>
       </c>
       <c r="E49" s="3">
-        <v>103500</v>
+        <v>103800</v>
       </c>
       <c r="F49" s="3">
-        <v>94100</v>
+        <v>94300</v>
       </c>
       <c r="G49" s="3">
-        <v>92800</v>
+        <v>93000</v>
       </c>
       <c r="H49" s="3">
-        <v>92500</v>
+        <v>92700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>344500</v>
+        <v>345300</v>
       </c>
       <c r="E52" s="3">
-        <v>276200</v>
+        <v>276800</v>
       </c>
       <c r="F52" s="3">
-        <v>52400</v>
+        <v>52500</v>
       </c>
       <c r="G52" s="3">
-        <v>47100</v>
+        <v>47200</v>
       </c>
       <c r="H52" s="3">
-        <v>86100</v>
+        <v>86300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11923200</v>
+        <v>11949200</v>
       </c>
       <c r="E54" s="3">
-        <v>8521500</v>
+        <v>8540100</v>
       </c>
       <c r="F54" s="3">
-        <v>5011500</v>
+        <v>5022400</v>
       </c>
       <c r="G54" s="3">
-        <v>1310800</v>
+        <v>1313600</v>
       </c>
       <c r="H54" s="3">
-        <v>796500</v>
+        <v>798200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,16 +2275,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2123200</v>
+        <v>2127800</v>
       </c>
       <c r="E57" s="3">
-        <v>976800</v>
+        <v>978900</v>
       </c>
       <c r="F57" s="3">
-        <v>412200</v>
+        <v>413100</v>
       </c>
       <c r="G57" s="3">
-        <v>86100</v>
+        <v>86300</v>
       </c>
       <c r="H57" s="3">
         <v>3100</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>689600</v>
+        <v>691100</v>
       </c>
       <c r="E58" s="3">
-        <v>320200</v>
+        <v>320900</v>
       </c>
       <c r="F58" s="3">
         <v>23300</v>
       </c>
       <c r="G58" s="3">
-        <v>178000</v>
+        <v>178400</v>
       </c>
       <c r="H58" s="3">
-        <v>55200</v>
+        <v>55300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>958600</v>
+        <v>960700</v>
       </c>
       <c r="E59" s="3">
-        <v>371300</v>
+        <v>372100</v>
       </c>
       <c r="F59" s="3">
-        <v>158300</v>
+        <v>158600</v>
       </c>
       <c r="G59" s="3">
-        <v>380700</v>
+        <v>381500</v>
       </c>
       <c r="H59" s="3">
-        <v>182700</v>
+        <v>183100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3771400</v>
+        <v>3779600</v>
       </c>
       <c r="E60" s="3">
-        <v>1668300</v>
+        <v>1671900</v>
       </c>
       <c r="F60" s="3">
-        <v>593700</v>
+        <v>595000</v>
       </c>
       <c r="G60" s="3">
-        <v>644800</v>
+        <v>646200</v>
       </c>
       <c r="H60" s="3">
-        <v>241000</v>
+        <v>241600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1271800</v>
+        <v>1274600</v>
       </c>
       <c r="E61" s="3">
-        <v>821300</v>
+        <v>823100</v>
       </c>
       <c r="F61" s="3">
-        <v>121000</v>
+        <v>121300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>138500</v>
+        <v>138800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>654200</v>
+        <v>655600</v>
       </c>
       <c r="E62" s="3">
-        <v>374100</v>
+        <v>375000</v>
       </c>
       <c r="F62" s="3">
-        <v>190400</v>
+        <v>190800</v>
       </c>
       <c r="G62" s="3">
-        <v>34800</v>
+        <v>34900</v>
       </c>
       <c r="H62" s="3">
         <v>30800</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5742600</v>
+        <v>5755100</v>
       </c>
       <c r="E66" s="3">
-        <v>2863700</v>
+        <v>2869900</v>
       </c>
       <c r="F66" s="3">
-        <v>905200</v>
+        <v>907100</v>
       </c>
       <c r="G66" s="3">
-        <v>679600</v>
+        <v>681100</v>
       </c>
       <c r="H66" s="3">
-        <v>410300</v>
+        <v>411200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1413000</v>
+        <v>1416100</v>
       </c>
       <c r="H70" s="3">
-        <v>730300</v>
+        <v>731900</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1214900</v>
+        <v>-1217600</v>
       </c>
       <c r="E72" s="3">
-        <v>-937700</v>
+        <v>-939700</v>
       </c>
       <c r="F72" s="3">
-        <v>-893100</v>
+        <v>-895100</v>
       </c>
       <c r="G72" s="3">
-        <v>-784000</v>
+        <v>-785700</v>
       </c>
       <c r="H72" s="3">
-        <v>-331900</v>
+        <v>-332600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6180600</v>
+        <v>6194100</v>
       </c>
       <c r="E76" s="3">
-        <v>5657800</v>
+        <v>5670200</v>
       </c>
       <c r="F76" s="3">
-        <v>4106300</v>
+        <v>4115300</v>
       </c>
       <c r="G76" s="3">
-        <v>-781800</v>
+        <v>-783500</v>
       </c>
       <c r="H76" s="3">
-        <v>-344100</v>
+        <v>-344800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-277200</v>
+        <v>-277800</v>
       </c>
       <c r="E81" s="3">
-        <v>-44300</v>
+        <v>-44400</v>
       </c>
       <c r="F81" s="3">
-        <v>-109100</v>
+        <v>-109400</v>
       </c>
       <c r="G81" s="3">
-        <v>-452100</v>
+        <v>-453100</v>
       </c>
       <c r="H81" s="3">
-        <v>-254800</v>
+        <v>-255400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>167200</v>
+        <v>167600</v>
       </c>
       <c r="E83" s="3">
-        <v>81300</v>
+        <v>81500</v>
       </c>
       <c r="F83" s="3">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="G83" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="H83" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1016900</v>
+        <v>1019100</v>
       </c>
       <c r="E89" s="3">
-        <v>1149100</v>
+        <v>1151600</v>
       </c>
       <c r="F89" s="3">
-        <v>432600</v>
+        <v>433500</v>
       </c>
       <c r="G89" s="3">
-        <v>-247100</v>
+        <v>-247700</v>
       </c>
       <c r="H89" s="3">
-        <v>-185600</v>
+        <v>-186000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-706500</v>
+        <v>-708100</v>
       </c>
       <c r="E91" s="3">
-        <v>-474600</v>
+        <v>-475600</v>
       </c>
       <c r="F91" s="3">
-        <v>-93000</v>
+        <v>-93200</v>
       </c>
       <c r="G91" s="3">
-        <v>-131300</v>
+        <v>-131600</v>
       </c>
       <c r="H91" s="3">
-        <v>-133700</v>
+        <v>-134000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,16 +3480,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-601400</v>
+        <v>-602700</v>
       </c>
       <c r="E94" s="3">
-        <v>-586600</v>
+        <v>-587800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2581700</v>
+        <v>-2587300</v>
       </c>
       <c r="G94" s="3">
-        <v>-354800</v>
+        <v>-355500</v>
       </c>
       <c r="H94" s="3">
         <v>-26400</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>777000</v>
+        <v>778700</v>
       </c>
       <c r="E100" s="3">
-        <v>2302200</v>
+        <v>2307300</v>
       </c>
       <c r="F100" s="3">
-        <v>3404600</v>
+        <v>3412100</v>
       </c>
       <c r="G100" s="3">
-        <v>779200</v>
+        <v>780900</v>
       </c>
       <c r="H100" s="3">
-        <v>152800</v>
+        <v>153100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,13 +3712,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>175000</v>
+        <v>175400</v>
       </c>
       <c r="E101" s="3">
-        <v>-65000</v>
+        <v>-65200</v>
       </c>
       <c r="F101" s="3">
-        <v>-51900</v>
+        <v>-52000</v>
       </c>
       <c r="G101" s="3">
         <v>7400</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1367500</v>
+        <v>1370500</v>
       </c>
       <c r="E102" s="3">
-        <v>2799800</v>
+        <v>2805900</v>
       </c>
       <c r="F102" s="3">
-        <v>1203700</v>
+        <v>1206300</v>
       </c>
       <c r="G102" s="3">
-        <v>184700</v>
+        <v>185100</v>
       </c>
       <c r="H102" s="3">
-        <v>-58700</v>
+        <v>-58900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
